--- a/data/data_origin/TripAdvisor_split_sample/TripAdvisor_hotel_negative.xlsx
+++ b/data/data_origin/TripAdvisor_split_sample/TripAdvisor_hotel_negative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivianli/PhD/TripAdvisor-hotel-aspect-level-sentiment-analysis/data/data_origin/TripAdvisor_split_sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qunyang/Dropbox (Personal)/Vivian/TripAdvisor hotel aspect-level sentiment analysis/data/data_origin/TripAdvisor_split_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C005815B-AC31-844E-954F-083A29502676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E587B4-95A8-1340-9420-D28CECE2256E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="640" windowWidth="24540" windowHeight="14140" xr2:uid="{00646F19-21E4-2A49-9BD1-D5CB611F8CF6}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="24000" windowHeight="37940" xr2:uid="{00646F19-21E4-2A49-9BD1-D5CB611F8CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4447" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4453" uniqueCount="2132">
   <si>
     <t>c11949</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6629,24 +6629,27 @@
   <si>
     <t>[food court][0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6654,7 +6657,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6721,7 +6724,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6737,7 +6740,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7035,13 +7038,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAC3DDD-0CAB-6544-B601-5ABEA1C35764}">
   <dimension ref="A1:K1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1013" workbookViewId="0">
-      <selection activeCell="A1016" sqref="A1016:XFD1016"/>
+    <sheetView tabSelected="1" topLeftCell="C803" workbookViewId="0">
+      <selection activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="136">
+    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7055,7 +7062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7069,7 +7076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7083,7 +7090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -7097,7 +7104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -7117,7 +7124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -7134,7 +7141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -7148,7 +7155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -7162,7 +7169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -7176,7 +7183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -7190,7 +7197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -7204,7 +7211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -7215,7 +7222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -7238,7 +7245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -7252,7 +7259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -7266,7 +7273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -7280,7 +7287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -7294,7 +7301,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -7305,7 +7312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -7319,7 +7326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1">
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -7333,7 +7340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -7347,7 +7354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1">
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -7361,7 +7368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1">
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -7375,7 +7382,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1">
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -7389,7 +7396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1">
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
@@ -7403,7 +7410,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="4" customFormat="1">
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
@@ -7417,7 +7424,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1">
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -7431,7 +7438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1">
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
@@ -7445,7 +7452,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1">
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>66</v>
       </c>
@@ -7462,7 +7469,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1">
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
@@ -7476,7 +7483,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1">
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
@@ -7493,7 +7500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>66</v>
       </c>
@@ -7504,7 +7511,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1">
+    <row r="33" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
@@ -7521,7 +7528,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="4" customFormat="1">
+    <row r="34" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
@@ -7535,7 +7542,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="4" customFormat="1">
+    <row r="35" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>82</v>
       </c>
@@ -7546,7 +7553,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="4" customFormat="1">
+    <row r="36" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>82</v>
       </c>
@@ -7560,7 +7567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="4" customFormat="1">
+    <row r="37" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>82</v>
       </c>
@@ -7577,7 +7584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="4" customFormat="1">
+    <row r="38" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
@@ -7597,7 +7604,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="4" customFormat="1">
+    <row r="39" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>82</v>
       </c>
@@ -7608,7 +7615,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="4" customFormat="1">
+    <row r="40" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>94</v>
       </c>
@@ -7622,7 +7629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="4" customFormat="1">
+    <row r="41" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>94</v>
       </c>
@@ -7636,7 +7643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="4" customFormat="1">
+    <row r="42" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
@@ -7647,7 +7654,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="4" customFormat="1">
+    <row r="43" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>94</v>
       </c>
@@ -7661,7 +7668,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="4" customFormat="1">
+    <row r="44" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>102</v>
       </c>
@@ -7675,7 +7682,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="4" customFormat="1">
+    <row r="45" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>102</v>
       </c>
@@ -7689,7 +7696,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="4" customFormat="1">
+    <row r="46" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>102</v>
       </c>
@@ -7706,7 +7713,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="4" customFormat="1">
+    <row r="47" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>102</v>
       </c>
@@ -7726,7 +7733,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="4" customFormat="1">
+    <row r="48" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>114</v>
       </c>
@@ -7740,7 +7747,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="4" customFormat="1">
+    <row r="49" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>114</v>
       </c>
@@ -7754,7 +7761,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1">
+    <row r="50" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>119</v>
       </c>
@@ -7768,7 +7775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="4" customFormat="1">
+    <row r="51" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>119</v>
       </c>
@@ -7782,7 +7789,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>123</v>
       </c>
@@ -7796,7 +7803,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>123</v>
       </c>
@@ -7813,7 +7820,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="4" customFormat="1">
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>123</v>
       </c>
@@ -7827,7 +7834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="4" customFormat="1">
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>123</v>
       </c>
@@ -7838,7 +7845,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="4" customFormat="1">
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>123</v>
       </c>
@@ -7852,7 +7859,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="4" customFormat="1">
+    <row r="57" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>134</v>
       </c>
@@ -7869,7 +7876,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="4" customFormat="1">
+    <row r="58" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>134</v>
       </c>
@@ -7886,7 +7893,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="4" customFormat="1">
+    <row r="59" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>134</v>
       </c>
@@ -7900,7 +7907,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="4" customFormat="1">
+    <row r="60" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>134</v>
       </c>
@@ -7914,7 +7921,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="4" customFormat="1">
+    <row r="61" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>144</v>
       </c>
@@ -7928,7 +7935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="4" customFormat="1">
+    <row r="62" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>144</v>
       </c>
@@ -7945,7 +7952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="4" customFormat="1">
+    <row r="63" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>144</v>
       </c>
@@ -7959,7 +7966,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="4" customFormat="1">
+    <row r="64" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>149</v>
       </c>
@@ -7973,7 +7980,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1">
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>149</v>
       </c>
@@ -7990,7 +7997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1">
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>153</v>
       </c>
@@ -8010,7 +8017,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1">
+    <row r="67" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>153</v>
       </c>
@@ -8027,7 +8034,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1">
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>153</v>
       </c>
@@ -8044,7 +8051,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="4" customFormat="1">
+    <row r="69" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>153</v>
       </c>
@@ -8058,7 +8065,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="4" customFormat="1">
+    <row r="70" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>164</v>
       </c>
@@ -8072,7 +8079,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1">
+    <row r="71" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>164</v>
       </c>
@@ -8092,7 +8099,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1">
+    <row r="72" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>164</v>
       </c>
@@ -8106,7 +8113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1">
+    <row r="73" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>172</v>
       </c>
@@ -8120,7 +8127,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="4" customFormat="1">
+    <row r="74" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>172</v>
       </c>
@@ -8137,7 +8144,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="4" customFormat="1">
+    <row r="75" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>172</v>
       </c>
@@ -8151,7 +8158,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="4" customFormat="1">
+    <row r="76" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>172</v>
       </c>
@@ -8165,7 +8172,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="4" customFormat="1">
+    <row r="77" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>172</v>
       </c>
@@ -8179,7 +8186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="4" customFormat="1">
+    <row r="78" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>172</v>
       </c>
@@ -8205,7 +8212,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="4" customFormat="1">
+    <row r="79" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>185</v>
       </c>
@@ -8219,7 +8226,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="4" customFormat="1">
+    <row r="80" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>185</v>
       </c>
@@ -8233,7 +8240,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="4" customFormat="1">
+    <row r="81" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>190</v>
       </c>
@@ -8250,7 +8257,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="4" customFormat="1">
+    <row r="82" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>190</v>
       </c>
@@ -8267,7 +8274,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="4" customFormat="1">
+    <row r="83" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>190</v>
       </c>
@@ -8281,7 +8288,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="4" customFormat="1">
+    <row r="84" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>198</v>
       </c>
@@ -8298,7 +8305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="4" customFormat="1">
+    <row r="85" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>198</v>
       </c>
@@ -8312,7 +8319,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="4" customFormat="1">
+    <row r="86" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>198</v>
       </c>
@@ -8326,7 +8333,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="4" customFormat="1">
+    <row r="87" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>198</v>
       </c>
@@ -8340,7 +8347,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="4" customFormat="1">
+    <row r="88" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>207</v>
       </c>
@@ -8354,7 +8361,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="4" customFormat="1">
+    <row r="89" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>207</v>
       </c>
@@ -8368,7 +8375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="4" customFormat="1">
+    <row r="90" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>207</v>
       </c>
@@ -8382,7 +8389,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="4" customFormat="1">
+    <row r="91" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>213</v>
       </c>
@@ -8405,7 +8412,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="4" customFormat="1">
+    <row r="92" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>218</v>
       </c>
@@ -8419,7 +8426,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="4" customFormat="1">
+    <row r="93" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>218</v>
       </c>
@@ -8430,7 +8437,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="4" customFormat="1">
+    <row r="94" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>218</v>
       </c>
@@ -8444,7 +8451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="4" customFormat="1">
+    <row r="95" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>218</v>
       </c>
@@ -8458,7 +8465,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="4" customFormat="1">
+    <row r="96" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>218</v>
       </c>
@@ -8469,7 +8476,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="4" customFormat="1">
+    <row r="97" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>218</v>
       </c>
@@ -8483,7 +8490,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="4" customFormat="1">
+    <row r="98" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>218</v>
       </c>
@@ -8494,7 +8501,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="4" customFormat="1">
+    <row r="99" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>218</v>
       </c>
@@ -8508,7 +8515,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="4" customFormat="1">
+    <row r="100" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>231</v>
       </c>
@@ -8519,7 +8526,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="4" customFormat="1">
+    <row r="101" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>231</v>
       </c>
@@ -8530,7 +8537,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="4" customFormat="1">
+    <row r="102" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>231</v>
       </c>
@@ -8541,7 +8548,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="4" customFormat="1">
+    <row r="103" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>235</v>
       </c>
@@ -8558,7 +8565,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="4" customFormat="1">
+    <row r="104" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>235</v>
       </c>
@@ -8572,7 +8579,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="4" customFormat="1">
+    <row r="105" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>235</v>
       </c>
@@ -8586,7 +8593,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="4" customFormat="1">
+    <row r="106" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>235</v>
       </c>
@@ -8603,7 +8610,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="4" customFormat="1">
+    <row r="107" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>245</v>
       </c>
@@ -8614,7 +8621,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="4" customFormat="1">
+    <row r="108" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>245</v>
       </c>
@@ -8634,7 +8641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="4" customFormat="1">
+    <row r="109" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>245</v>
       </c>
@@ -8645,7 +8652,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="4" customFormat="1">
+    <row r="110" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>245</v>
       </c>
@@ -8662,7 +8669,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="4" customFormat="1">
+    <row r="111" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>245</v>
       </c>
@@ -8676,7 +8683,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="4" customFormat="1">
+    <row r="112" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>245</v>
       </c>
@@ -8690,7 +8697,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="4" customFormat="1">
+    <row r="113" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>256</v>
       </c>
@@ -8704,7 +8711,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="4" customFormat="1">
+    <row r="114" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>256</v>
       </c>
@@ -8721,7 +8728,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="4" customFormat="1">
+    <row r="115" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>256</v>
       </c>
@@ -8732,7 +8739,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="4" customFormat="1">
+    <row r="116" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>260</v>
       </c>
@@ -8749,7 +8756,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="4" customFormat="1">
+    <row r="117" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>260</v>
       </c>
@@ -8763,7 +8770,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="4" customFormat="1">
+    <row r="118" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>260</v>
       </c>
@@ -8777,7 +8784,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="4" customFormat="1">
+    <row r="119" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>268</v>
       </c>
@@ -8791,7 +8798,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="4" customFormat="1">
+    <row r="120" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>268</v>
       </c>
@@ -8805,7 +8812,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="4" customFormat="1">
+    <row r="121" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>268</v>
       </c>
@@ -8819,7 +8826,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="4" customFormat="1">
+    <row r="122" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>274</v>
       </c>
@@ -8836,7 +8843,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="4" customFormat="1">
+    <row r="123" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>274</v>
       </c>
@@ -8853,7 +8860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="4" customFormat="1">
+    <row r="124" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>278</v>
       </c>
@@ -8867,7 +8874,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="4" customFormat="1">
+    <row r="125" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>278</v>
       </c>
@@ -8881,7 +8888,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="4" customFormat="1">
+    <row r="126" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>278</v>
       </c>
@@ -8895,7 +8902,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="4" customFormat="1">
+    <row r="127" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>284</v>
       </c>
@@ -8909,7 +8916,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="4" customFormat="1">
+    <row r="128" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>284</v>
       </c>
@@ -8926,7 +8933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="4" customFormat="1">
+    <row r="129" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>287</v>
       </c>
@@ -8943,7 +8950,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="4" customFormat="1">
+    <row r="130" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>287</v>
       </c>
@@ -8957,7 +8964,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="4" customFormat="1">
+    <row r="131" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>287</v>
       </c>
@@ -8968,7 +8975,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="4" customFormat="1">
+    <row r="132" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>287</v>
       </c>
@@ -8985,7 +8992,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="4" customFormat="1">
+    <row r="133" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>287</v>
       </c>
@@ -8999,7 +9006,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="4" customFormat="1">
+    <row r="134" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>287</v>
       </c>
@@ -9013,7 +9020,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="4" customFormat="1">
+    <row r="135" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>287</v>
       </c>
@@ -9027,7 +9034,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="4" customFormat="1">
+    <row r="136" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>297</v>
       </c>
@@ -9044,7 +9051,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="4" customFormat="1">
+    <row r="137" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>297</v>
       </c>
@@ -9067,7 +9074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="4" customFormat="1">
+    <row r="138" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>297</v>
       </c>
@@ -9084,7 +9091,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="4" customFormat="1">
+    <row r="139" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>305</v>
       </c>
@@ -9098,7 +9105,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="4" customFormat="1">
+    <row r="140" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>305</v>
       </c>
@@ -9115,7 +9122,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="4" customFormat="1">
+    <row r="141" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>309</v>
       </c>
@@ -9129,7 +9136,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="4" customFormat="1">
+    <row r="142" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>311</v>
       </c>
@@ -9149,7 +9156,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="4" customFormat="1">
+    <row r="143" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>315</v>
       </c>
@@ -9163,7 +9170,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="4" customFormat="1">
+    <row r="144" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>315</v>
       </c>
@@ -9180,7 +9187,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="4" customFormat="1">
+    <row r="145" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>315</v>
       </c>
@@ -9194,7 +9201,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="4" customFormat="1">
+    <row r="146" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>315</v>
       </c>
@@ -9208,7 +9215,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="4" customFormat="1">
+    <row r="147" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>315</v>
       </c>
@@ -9222,7 +9229,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="4" customFormat="1">
+    <row r="148" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>322</v>
       </c>
@@ -9239,7 +9246,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="4" customFormat="1">
+    <row r="149" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>322</v>
       </c>
@@ -9250,7 +9257,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="4" customFormat="1">
+    <row r="150" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>322</v>
       </c>
@@ -9264,7 +9271,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="4" customFormat="1">
+    <row r="151" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>322</v>
       </c>
@@ -9278,7 +9285,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="4" customFormat="1">
+    <row r="152" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>329</v>
       </c>
@@ -9292,7 +9299,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="4" customFormat="1">
+    <row r="153" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>329</v>
       </c>
@@ -9309,7 +9316,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="4" customFormat="1">
+    <row r="154" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>329</v>
       </c>
@@ -9323,7 +9330,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="4" customFormat="1">
+    <row r="155" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>336</v>
       </c>
@@ -9337,7 +9344,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="4" customFormat="1">
+    <row r="156" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>336</v>
       </c>
@@ -9354,7 +9361,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="4" customFormat="1">
+    <row r="157" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>336</v>
       </c>
@@ -9371,7 +9378,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="4" customFormat="1">
+    <row r="158" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>343</v>
       </c>
@@ -9394,7 +9401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="4" customFormat="1">
+    <row r="159" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>348</v>
       </c>
@@ -9408,7 +9415,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="4" customFormat="1">
+    <row r="160" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>348</v>
       </c>
@@ -9425,7 +9432,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="4" customFormat="1">
+    <row r="161" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>348</v>
       </c>
@@ -9439,7 +9446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="4" customFormat="1">
+    <row r="162" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>348</v>
       </c>
@@ -9459,7 +9466,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="4" customFormat="1">
+    <row r="163" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>348</v>
       </c>
@@ -9473,7 +9480,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="4" customFormat="1">
+    <row r="164" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>348</v>
       </c>
@@ -9487,7 +9494,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="4" customFormat="1">
+    <row r="165" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>360</v>
       </c>
@@ -9501,7 +9508,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="4" customFormat="1">
+    <row r="166" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>363</v>
       </c>
@@ -9515,7 +9522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="4" customFormat="1">
+    <row r="167" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>365</v>
       </c>
@@ -9529,7 +9536,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="4" customFormat="1">
+    <row r="168" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>368</v>
       </c>
@@ -9543,7 +9550,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="4" customFormat="1">
+    <row r="169" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>368</v>
       </c>
@@ -9557,7 +9564,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="4" customFormat="1">
+    <row r="170" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>372</v>
       </c>
@@ -9571,7 +9578,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="4" customFormat="1">
+    <row r="171" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>372</v>
       </c>
@@ -9585,7 +9592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="4" customFormat="1">
+    <row r="172" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>372</v>
       </c>
@@ -9599,7 +9606,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="4" customFormat="1">
+    <row r="173" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>372</v>
       </c>
@@ -9622,7 +9629,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="4" customFormat="1">
+    <row r="174" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>383</v>
       </c>
@@ -9645,7 +9652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="4" customFormat="1">
+    <row r="175" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>385</v>
       </c>
@@ -9659,7 +9666,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="4" customFormat="1">
+    <row r="176" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>385</v>
       </c>
@@ -9673,7 +9680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="4" customFormat="1">
+    <row r="177" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>388</v>
       </c>
@@ -9687,7 +9694,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="4" customFormat="1">
+    <row r="178" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>388</v>
       </c>
@@ -9701,7 +9708,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1">
+    <row r="179" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>393</v>
       </c>
@@ -9718,7 +9725,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1">
+    <row r="180" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>397</v>
       </c>
@@ -9735,7 +9742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1">
+    <row r="181" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>399</v>
       </c>
@@ -9752,7 +9759,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1">
+    <row r="182" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>402</v>
       </c>
@@ -9766,7 +9773,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="4" customFormat="1">
+    <row r="183" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>404</v>
       </c>
@@ -9777,7 +9784,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1">
+    <row r="184" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>404</v>
       </c>
@@ -9791,7 +9798,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="4" customFormat="1">
+    <row r="185" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>404</v>
       </c>
@@ -9808,7 +9815,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="4" customFormat="1">
+    <row r="186" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>404</v>
       </c>
@@ -9831,7 +9838,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="4" customFormat="1">
+    <row r="187" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>404</v>
       </c>
@@ -9845,7 +9852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="4" customFormat="1">
+    <row r="188" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>404</v>
       </c>
@@ -9862,7 +9869,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="4" customFormat="1">
+    <row r="189" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>418</v>
       </c>
@@ -9876,7 +9883,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="4" customFormat="1">
+    <row r="190" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>418</v>
       </c>
@@ -9890,7 +9897,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="4" customFormat="1">
+    <row r="191" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>422</v>
       </c>
@@ -9916,7 +9923,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="4" customFormat="1">
+    <row r="192" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>422</v>
       </c>
@@ -9930,7 +9937,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="4" customFormat="1">
+    <row r="193" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>422</v>
       </c>
@@ -9944,7 +9951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="4" customFormat="1">
+    <row r="194" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>432</v>
       </c>
@@ -9958,7 +9965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="4" customFormat="1">
+    <row r="195" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>434</v>
       </c>
@@ -9975,7 +9982,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="4" customFormat="1">
+    <row r="196" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>434</v>
       </c>
@@ -9992,7 +9999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="4" customFormat="1">
+    <row r="197" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>434</v>
       </c>
@@ -10006,7 +10013,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="4" customFormat="1">
+    <row r="198" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>441</v>
       </c>
@@ -10020,7 +10027,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="4" customFormat="1">
+    <row r="199" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>441</v>
       </c>
@@ -10034,7 +10041,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="4" customFormat="1">
+    <row r="200" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>445</v>
       </c>
@@ -10051,7 +10058,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="4" customFormat="1">
+    <row r="201" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>445</v>
       </c>
@@ -10065,7 +10072,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="4" customFormat="1">
+    <row r="202" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>449</v>
       </c>
@@ -10079,7 +10086,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="4" customFormat="1">
+    <row r="203" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>449</v>
       </c>
@@ -10093,7 +10100,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="4" customFormat="1">
+    <row r="204" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>454</v>
       </c>
@@ -10107,7 +10114,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="4" customFormat="1">
+    <row r="205" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>456</v>
       </c>
@@ -10130,7 +10137,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="4" customFormat="1">
+    <row r="206" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>456</v>
       </c>
@@ -10141,7 +10148,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="4" customFormat="1">
+    <row r="207" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>456</v>
       </c>
@@ -10155,7 +10162,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="4" customFormat="1">
+    <row r="208" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>456</v>
       </c>
@@ -10169,7 +10176,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="4" customFormat="1">
+    <row r="209" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>456</v>
       </c>
@@ -10183,7 +10190,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="4" customFormat="1">
+    <row r="210" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>468</v>
       </c>
@@ -10197,7 +10204,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="4" customFormat="1">
+    <row r="211" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>468</v>
       </c>
@@ -10211,7 +10218,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="212" spans="1:5" s="4" customFormat="1">
+    <row r="212" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>468</v>
       </c>
@@ -10228,7 +10235,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="4" customFormat="1">
+    <row r="213" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>468</v>
       </c>
@@ -10242,7 +10249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="4" customFormat="1">
+    <row r="214" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>468</v>
       </c>
@@ -10253,7 +10260,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="4" customFormat="1">
+    <row r="215" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>468</v>
       </c>
@@ -10267,7 +10274,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="4" customFormat="1">
+    <row r="216" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>478</v>
       </c>
@@ -10281,7 +10288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="4" customFormat="1">
+    <row r="217" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>480</v>
       </c>
@@ -10295,7 +10302,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="4" customFormat="1">
+    <row r="218" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>480</v>
       </c>
@@ -10309,7 +10316,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="4" customFormat="1">
+    <row r="219" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>480</v>
       </c>
@@ -10323,7 +10330,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="220" spans="1:5" s="4" customFormat="1">
+    <row r="220" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>480</v>
       </c>
@@ -10337,7 +10344,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="4" customFormat="1">
+    <row r="221" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>480</v>
       </c>
@@ -10354,7 +10361,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="222" spans="1:5" s="4" customFormat="1">
+    <row r="222" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>480</v>
       </c>
@@ -10368,7 +10375,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="223" spans="1:5" s="4" customFormat="1">
+    <row r="223" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>493</v>
       </c>
@@ -10382,7 +10389,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:5" s="4" customFormat="1">
+    <row r="224" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>493</v>
       </c>
@@ -10393,7 +10400,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="4" customFormat="1">
+    <row r="225" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>493</v>
       </c>
@@ -10410,7 +10417,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="4" customFormat="1">
+    <row r="226" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>493</v>
       </c>
@@ -10427,7 +10434,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="4" customFormat="1">
+    <row r="227" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>501</v>
       </c>
@@ -10441,7 +10448,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="4" customFormat="1">
+    <row r="228" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>501</v>
       </c>
@@ -10455,7 +10462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="4" customFormat="1">
+    <row r="229" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>501</v>
       </c>
@@ -10469,7 +10476,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="4" customFormat="1">
+    <row r="230" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>501</v>
       </c>
@@ -10483,7 +10490,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="231" spans="1:6" s="4" customFormat="1">
+    <row r="231" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>501</v>
       </c>
@@ -10503,7 +10510,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="4" customFormat="1">
+    <row r="232" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>501</v>
       </c>
@@ -10517,7 +10524,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="4" customFormat="1">
+    <row r="233" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>510</v>
       </c>
@@ -10528,7 +10535,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="4" customFormat="1">
+    <row r="234" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>510</v>
       </c>
@@ -10539,7 +10546,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="4" customFormat="1">
+    <row r="235" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>510</v>
       </c>
@@ -10556,7 +10563,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="4" customFormat="1">
+    <row r="236" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>510</v>
       </c>
@@ -10570,7 +10577,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="4" customFormat="1">
+    <row r="237" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>510</v>
       </c>
@@ -10587,7 +10594,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="4" customFormat="1">
+    <row r="238" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>510</v>
       </c>
@@ -10601,7 +10608,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="4" customFormat="1">
+    <row r="239" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>510</v>
       </c>
@@ -10615,7 +10622,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="4" customFormat="1">
+    <row r="240" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>523</v>
       </c>
@@ -10629,7 +10636,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="4" customFormat="1">
+    <row r="241" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>523</v>
       </c>
@@ -10646,7 +10653,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="4" customFormat="1">
+    <row r="242" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>523</v>
       </c>
@@ -10660,7 +10667,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="4" customFormat="1">
+    <row r="243" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>523</v>
       </c>
@@ -10674,7 +10681,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="4" customFormat="1">
+    <row r="244" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>529</v>
       </c>
@@ -10688,7 +10695,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="4" customFormat="1">
+    <row r="245" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>529</v>
       </c>
@@ -10708,7 +10715,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="4" customFormat="1">
+    <row r="246" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>529</v>
       </c>
@@ -10722,7 +10729,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="4" customFormat="1">
+    <row r="247" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>529</v>
       </c>
@@ -10736,7 +10743,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="4" customFormat="1">
+    <row r="248" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>529</v>
       </c>
@@ -10747,7 +10754,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="4" customFormat="1">
+    <row r="249" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>529</v>
       </c>
@@ -10767,7 +10774,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="4" customFormat="1">
+    <row r="250" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>529</v>
       </c>
@@ -10781,7 +10788,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="4" customFormat="1">
+    <row r="251" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>529</v>
       </c>
@@ -10795,7 +10802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="4" customFormat="1">
+    <row r="252" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>545</v>
       </c>
@@ -10806,7 +10813,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="4" customFormat="1">
+    <row r="253" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>545</v>
       </c>
@@ -10817,7 +10824,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="4" customFormat="1">
+    <row r="254" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>545</v>
       </c>
@@ -10834,7 +10841,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="4" customFormat="1">
+    <row r="255" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>545</v>
       </c>
@@ -10851,7 +10858,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="4" customFormat="1">
+    <row r="256" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>545</v>
       </c>
@@ -10865,7 +10872,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="4" customFormat="1">
+    <row r="257" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>545</v>
       </c>
@@ -10879,7 +10886,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="4" customFormat="1">
+    <row r="258" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>555</v>
       </c>
@@ -10893,7 +10900,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="4" customFormat="1">
+    <row r="259" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>555</v>
       </c>
@@ -10907,7 +10914,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="4" customFormat="1">
+    <row r="260" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>555</v>
       </c>
@@ -10927,7 +10934,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="4" customFormat="1">
+    <row r="261" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>555</v>
       </c>
@@ -10938,7 +10945,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="4" customFormat="1">
+    <row r="262" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>555</v>
       </c>
@@ -10949,7 +10956,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="4" customFormat="1">
+    <row r="263" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>565</v>
       </c>
@@ -10969,7 +10976,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="264" spans="1:7" s="4" customFormat="1">
+    <row r="264" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>565</v>
       </c>
@@ -10983,7 +10990,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="265" spans="1:7" s="4" customFormat="1">
+    <row r="265" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>571</v>
       </c>
@@ -10997,7 +11004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:7" s="4" customFormat="1">
+    <row r="266" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>571</v>
       </c>
@@ -11020,7 +11027,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="267" spans="1:7" s="4" customFormat="1">
+    <row r="267" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>578</v>
       </c>
@@ -11034,7 +11041,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="268" spans="1:7" s="4" customFormat="1">
+    <row r="268" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>578</v>
       </c>
@@ -11048,7 +11055,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="4" customFormat="1">
+    <row r="269" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>578</v>
       </c>
@@ -11062,7 +11069,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="4" customFormat="1">
+    <row r="270" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>578</v>
       </c>
@@ -11076,7 +11083,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="4" customFormat="1">
+    <row r="271" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>584</v>
       </c>
@@ -11090,7 +11097,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="4" customFormat="1">
+    <row r="272" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>584</v>
       </c>
@@ -11104,7 +11111,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="273" spans="1:7" s="4" customFormat="1">
+    <row r="273" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>584</v>
       </c>
@@ -11115,7 +11122,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="274" spans="1:7" s="4" customFormat="1">
+    <row r="274" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>584</v>
       </c>
@@ -11129,7 +11136,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="275" spans="1:7" s="4" customFormat="1">
+    <row r="275" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>584</v>
       </c>
@@ -11143,7 +11150,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="276" spans="1:7" s="4" customFormat="1">
+    <row r="276" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>584</v>
       </c>
@@ -11157,7 +11164,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="277" spans="1:7" s="4" customFormat="1">
+    <row r="277" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>593</v>
       </c>
@@ -11171,7 +11178,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="278" spans="1:7" s="4" customFormat="1">
+    <row r="278" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>593</v>
       </c>
@@ -11188,7 +11195,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="279" spans="1:7" s="4" customFormat="1">
+    <row r="279" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>593</v>
       </c>
@@ -11202,7 +11209,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="280" spans="1:7" s="4" customFormat="1">
+    <row r="280" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>598</v>
       </c>
@@ -11225,7 +11232,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="281" spans="1:7" s="4" customFormat="1">
+    <row r="281" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>598</v>
       </c>
@@ -11239,7 +11246,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="282" spans="1:7" s="4" customFormat="1">
+    <row r="282" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>605</v>
       </c>
@@ -11253,7 +11260,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="283" spans="1:7" s="4" customFormat="1">
+    <row r="283" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>605</v>
       </c>
@@ -11267,7 +11274,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="284" spans="1:7" s="4" customFormat="1">
+    <row r="284" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>610</v>
       </c>
@@ -11284,7 +11291,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="285" spans="1:7" s="4" customFormat="1">
+    <row r="285" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>610</v>
       </c>
@@ -11298,7 +11305,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="286" spans="1:7" s="4" customFormat="1">
+    <row r="286" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>615</v>
       </c>
@@ -11315,7 +11322,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="287" spans="1:7" s="4" customFormat="1">
+    <row r="287" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>615</v>
       </c>
@@ -11329,7 +11336,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="288" spans="1:7" s="4" customFormat="1">
+    <row r="288" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>615</v>
       </c>
@@ -11343,7 +11350,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="289" spans="1:6" s="4" customFormat="1">
+    <row r="289" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>619</v>
       </c>
@@ -11357,7 +11364,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="290" spans="1:6" s="4" customFormat="1">
+    <row r="290" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>619</v>
       </c>
@@ -11371,7 +11378,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="291" spans="1:6" s="4" customFormat="1">
+    <row r="291" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>619</v>
       </c>
@@ -11385,7 +11392,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="292" spans="1:6" s="4" customFormat="1">
+    <row r="292" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>624</v>
       </c>
@@ -11402,7 +11409,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="293" spans="1:6" s="4" customFormat="1">
+    <row r="293" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>624</v>
       </c>
@@ -11416,7 +11423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="294" spans="1:6" s="4" customFormat="1">
+    <row r="294" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>624</v>
       </c>
@@ -11436,7 +11443,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="295" spans="1:6" s="4" customFormat="1">
+    <row r="295" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>624</v>
       </c>
@@ -11453,7 +11460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:6" s="4" customFormat="1">
+    <row r="296" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>624</v>
       </c>
@@ -11467,7 +11474,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="297" spans="1:6" s="4" customFormat="1">
+    <row r="297" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>635</v>
       </c>
@@ -11481,7 +11488,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="4" customFormat="1">
+    <row r="298" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>635</v>
       </c>
@@ -11495,7 +11502,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="299" spans="1:6" s="4" customFormat="1">
+    <row r="299" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>2131</v>
+      </c>
       <c r="C299" s="4" t="s">
         <v>638</v>
       </c>
@@ -11503,7 +11516,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="300" spans="1:6" s="4" customFormat="1">
+    <row r="300" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>635</v>
       </c>
@@ -11514,7 +11527,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="301" spans="1:6" s="4" customFormat="1">
+    <row r="301" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>635</v>
       </c>
@@ -11528,7 +11541,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="302" spans="1:6" s="4" customFormat="1">
+    <row r="302" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>642</v>
       </c>
@@ -11542,7 +11555,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="303" spans="1:6" s="4" customFormat="1">
+    <row r="303" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>642</v>
       </c>
@@ -11559,7 +11572,13 @@
         <v>647</v>
       </c>
     </row>
-    <row r="304" spans="1:6" s="4" customFormat="1">
+    <row r="304" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>463</v>
+      </c>
       <c r="C304" s="4" t="s">
         <v>648</v>
       </c>
@@ -11570,7 +11589,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="305" spans="1:6" s="4" customFormat="1">
+    <row r="305" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>642</v>
       </c>
@@ -11587,7 +11606,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="306" spans="1:6" s="4" customFormat="1">
+    <row r="306" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>642</v>
       </c>
@@ -11604,7 +11623,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="307" spans="1:6" s="4" customFormat="1">
+    <row r="307" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>652</v>
       </c>
@@ -11624,7 +11643,13 @@
         <v>655</v>
       </c>
     </row>
-    <row r="308" spans="1:6" s="4" customFormat="1">
+    <row r="308" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>463</v>
+      </c>
       <c r="C308" s="4" t="s">
         <v>656</v>
       </c>
@@ -11632,7 +11657,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="309" spans="1:6" s="4" customFormat="1">
+    <row r="309" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>657</v>
       </c>
@@ -11646,7 +11671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="1:6" s="4" customFormat="1">
+    <row r="310" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
         <v>657</v>
       </c>
@@ -11660,7 +11685,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="311" spans="1:6" s="4" customFormat="1">
+    <row r="311" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
         <v>657</v>
       </c>
@@ -11671,7 +11696,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="312" spans="1:6" s="4" customFormat="1">
+    <row r="312" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
         <v>662</v>
       </c>
@@ -11685,7 +11710,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="313" spans="1:6" s="4" customFormat="1">
+    <row r="313" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
         <v>664</v>
       </c>
@@ -11699,7 +11724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="314" spans="1:6" s="4" customFormat="1">
+    <row r="314" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>664</v>
       </c>
@@ -11713,7 +11738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="315" spans="1:6" s="4" customFormat="1">
+    <row r="315" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
         <v>664</v>
       </c>
@@ -11730,7 +11755,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="316" spans="1:6" s="4" customFormat="1">
+    <row r="316" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
         <v>664</v>
       </c>
@@ -11744,7 +11769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="317" spans="1:6" s="4" customFormat="1">
+    <row r="317" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>664</v>
       </c>
@@ -11758,7 +11783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="318" spans="1:6" s="4" customFormat="1">
+    <row r="318" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>670</v>
       </c>
@@ -11772,7 +11797,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="319" spans="1:6" s="4" customFormat="1">
+    <row r="319" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>670</v>
       </c>
@@ -11789,7 +11814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="320" spans="1:6" s="4" customFormat="1">
+    <row r="320" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
         <v>674</v>
       </c>
@@ -11803,7 +11828,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="321" spans="1:6" s="4" customFormat="1">
+    <row r="321" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>674</v>
       </c>
@@ -11817,7 +11842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="322" spans="1:6" s="4" customFormat="1">
+    <row r="322" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
         <v>674</v>
       </c>
@@ -11831,7 +11856,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="323" spans="1:6" s="4" customFormat="1">
+    <row r="323" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
         <v>674</v>
       </c>
@@ -11851,7 +11876,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="324" spans="1:6" s="4" customFormat="1">
+    <row r="324" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
         <v>679</v>
       </c>
@@ -11862,7 +11887,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="4" customFormat="1">
+    <row r="325" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
         <v>681</v>
       </c>
@@ -11873,7 +11898,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="326" spans="1:6" s="4" customFormat="1">
+    <row r="326" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>681</v>
       </c>
@@ -11884,7 +11909,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="327" spans="1:6" s="4" customFormat="1">
+    <row r="327" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
         <v>681</v>
       </c>
@@ -11898,7 +11923,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="328" spans="1:6" s="4" customFormat="1">
+    <row r="328" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
         <v>686</v>
       </c>
@@ -11909,7 +11934,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="329" spans="1:6" s="4" customFormat="1">
+    <row r="329" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
         <v>686</v>
       </c>
@@ -11926,7 +11951,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="330" spans="1:6" s="4" customFormat="1">
+    <row r="330" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
         <v>686</v>
       </c>
@@ -11940,7 +11965,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="331" spans="1:6" s="4" customFormat="1">
+    <row r="331" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
         <v>686</v>
       </c>
@@ -11954,7 +11979,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="332" spans="1:6" s="4" customFormat="1">
+    <row r="332" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>686</v>
       </c>
@@ -11965,7 +11990,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="333" spans="1:6" s="4" customFormat="1">
+    <row r="333" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
         <v>686</v>
       </c>
@@ -11982,7 +12007,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="334" spans="1:6" s="4" customFormat="1">
+    <row r="334" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>686</v>
       </c>
@@ -11996,7 +12021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:6" s="4" customFormat="1">
+    <row r="335" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>699</v>
       </c>
@@ -12013,7 +12038,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="336" spans="1:6" s="4" customFormat="1">
+    <row r="336" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>699</v>
       </c>
@@ -12030,7 +12055,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="337" spans="1:7" s="4" customFormat="1">
+    <row r="337" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
         <v>705</v>
       </c>
@@ -12041,7 +12066,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="338" spans="1:7" s="4" customFormat="1">
+    <row r="338" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
         <v>705</v>
       </c>
@@ -12058,7 +12083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:7" s="4" customFormat="1">
+    <row r="339" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
         <v>705</v>
       </c>
@@ -12072,7 +12097,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="340" spans="1:7" s="4" customFormat="1">
+    <row r="340" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
         <v>705</v>
       </c>
@@ -12083,7 +12108,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="341" spans="1:7" s="4" customFormat="1">
+    <row r="341" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
         <v>710</v>
       </c>
@@ -12103,7 +12128,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="342" spans="1:7" s="4" customFormat="1">
+    <row r="342" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
         <v>715</v>
       </c>
@@ -12114,7 +12139,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="343" spans="1:7" s="4" customFormat="1">
+    <row r="343" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
         <v>715</v>
       </c>
@@ -12131,7 +12156,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="344" spans="1:7" s="4" customFormat="1">
+    <row r="344" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
         <v>715</v>
       </c>
@@ -12145,7 +12170,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="345" spans="1:7" s="4" customFormat="1">
+    <row r="345" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
         <v>715</v>
       </c>
@@ -12159,7 +12184,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="346" spans="1:7" s="4" customFormat="1">
+    <row r="346" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
         <v>724</v>
       </c>
@@ -12182,7 +12207,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="347" spans="1:7" s="4" customFormat="1">
+    <row r="347" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>727</v>
       </c>
@@ -12196,7 +12221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="348" spans="1:7" s="4" customFormat="1">
+    <row r="348" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>727</v>
       </c>
@@ -12210,7 +12235,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="349" spans="1:7" s="4" customFormat="1">
+    <row r="349" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
         <v>727</v>
       </c>
@@ -12221,7 +12246,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="350" spans="1:7" s="4" customFormat="1">
+    <row r="350" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>732</v>
       </c>
@@ -12238,7 +12263,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="351" spans="1:7" s="4" customFormat="1">
+    <row r="351" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
         <v>735</v>
       </c>
@@ -12252,7 +12277,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="352" spans="1:7" s="4" customFormat="1">
+    <row r="352" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>735</v>
       </c>
@@ -12266,7 +12291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="353" spans="1:8" s="4" customFormat="1">
+    <row r="353" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
         <v>735</v>
       </c>
@@ -12289,7 +12314,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="354" spans="1:8" s="4" customFormat="1">
+    <row r="354" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>735</v>
       </c>
@@ -12303,7 +12328,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="355" spans="1:8" s="4" customFormat="1">
+    <row r="355" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
         <v>735</v>
       </c>
@@ -12314,7 +12339,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="356" spans="1:8" s="4" customFormat="1">
+    <row r="356" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>745</v>
       </c>
@@ -12328,7 +12353,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="357" spans="1:8" s="4" customFormat="1">
+    <row r="357" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
         <v>747</v>
       </c>
@@ -12339,7 +12364,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="358" spans="1:8" s="4" customFormat="1">
+    <row r="358" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
         <v>747</v>
       </c>
@@ -12353,7 +12378,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="359" spans="1:8" s="4" customFormat="1">
+    <row r="359" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
         <v>751</v>
       </c>
@@ -12367,7 +12392,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="360" spans="1:8" s="4" customFormat="1">
+    <row r="360" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
         <v>754</v>
       </c>
@@ -12381,7 +12406,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="361" spans="1:8" s="4" customFormat="1">
+    <row r="361" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
         <v>754</v>
       </c>
@@ -12398,7 +12423,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="362" spans="1:8" s="4" customFormat="1">
+    <row r="362" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
         <v>760</v>
       </c>
@@ -12415,7 +12440,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="363" spans="1:8" s="4" customFormat="1">
+    <row r="363" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
         <v>764</v>
       </c>
@@ -12441,7 +12466,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="364" spans="1:8" s="4" customFormat="1">
+    <row r="364" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
         <v>764</v>
       </c>
@@ -12455,7 +12480,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="365" spans="1:8" s="4" customFormat="1">
+    <row r="365" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
         <v>772</v>
       </c>
@@ -12478,7 +12503,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="366" spans="1:8" s="4" customFormat="1">
+    <row r="366" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
         <v>772</v>
       </c>
@@ -12489,7 +12514,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="367" spans="1:8" s="4" customFormat="1">
+    <row r="367" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
         <v>772</v>
       </c>
@@ -12503,7 +12528,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="368" spans="1:8" s="4" customFormat="1">
+    <row r="368" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>772</v>
       </c>
@@ -12514,7 +12539,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="369" spans="1:6" s="4" customFormat="1">
+    <row r="369" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
         <v>781</v>
       </c>
@@ -12528,7 +12553,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="370" spans="1:6" s="4" customFormat="1">
+    <row r="370" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
         <v>781</v>
       </c>
@@ -12548,7 +12573,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="371" spans="1:6" s="4" customFormat="1">
+    <row r="371" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
         <v>781</v>
       </c>
@@ -12565,7 +12590,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="372" spans="1:6" s="4" customFormat="1">
+    <row r="372" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>781</v>
       </c>
@@ -12582,7 +12607,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="373" spans="1:6" s="4" customFormat="1">
+    <row r="373" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
         <v>781</v>
       </c>
@@ -12596,7 +12621,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="374" spans="1:6" s="4" customFormat="1">
+    <row r="374" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
         <v>793</v>
       </c>
@@ -12610,7 +12635,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="375" spans="1:6" s="4" customFormat="1">
+    <row r="375" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
         <v>793</v>
       </c>
@@ -12624,7 +12649,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="376" spans="1:6" s="4" customFormat="1">
+    <row r="376" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
         <v>793</v>
       </c>
@@ -12638,7 +12663,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="377" spans="1:6" s="4" customFormat="1">
+    <row r="377" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
         <v>793</v>
       </c>
@@ -12652,7 +12677,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="378" spans="1:6" s="4" customFormat="1">
+    <row r="378" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
         <v>793</v>
       </c>
@@ -12672,7 +12697,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="379" spans="1:6" s="4" customFormat="1">
+    <row r="379" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
         <v>793</v>
       </c>
@@ -12686,7 +12711,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="380" spans="1:6" s="4" customFormat="1">
+    <row r="380" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
         <v>793</v>
       </c>
@@ -12700,7 +12725,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="381" spans="1:6" s="4" customFormat="1">
+    <row r="381" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
         <v>807</v>
       </c>
@@ -12717,7 +12742,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="382" spans="1:6" s="4" customFormat="1">
+    <row r="382" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4" t="s">
         <v>807</v>
       </c>
@@ -12728,7 +12753,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="383" spans="1:6" s="4" customFormat="1">
+    <row r="383" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
         <v>807</v>
       </c>
@@ -12742,7 +12767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="384" spans="1:6" s="4" customFormat="1">
+    <row r="384" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
         <v>807</v>
       </c>
@@ -12756,7 +12781,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="385" spans="1:6" s="4" customFormat="1">
+    <row r="385" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
         <v>807</v>
       </c>
@@ -12770,7 +12795,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="386" spans="1:6" s="4" customFormat="1">
+    <row r="386" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>807</v>
       </c>
@@ -12784,7 +12809,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="387" spans="1:6" s="4" customFormat="1">
+    <row r="387" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
         <v>817</v>
       </c>
@@ -12795,7 +12820,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="388" spans="1:6" s="4" customFormat="1">
+    <row r="388" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
         <v>817</v>
       </c>
@@ -12809,7 +12834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="389" spans="1:6" s="4" customFormat="1">
+    <row r="389" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
         <v>817</v>
       </c>
@@ -12829,7 +12854,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="390" spans="1:6" s="4" customFormat="1">
+    <row r="390" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
         <v>817</v>
       </c>
@@ -12846,7 +12871,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="391" spans="1:6" s="4" customFormat="1">
+    <row r="391" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
         <v>817</v>
       </c>
@@ -12860,7 +12885,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="392" spans="1:6" s="4" customFormat="1">
+    <row r="392" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
         <v>817</v>
       </c>
@@ -12874,7 +12899,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="393" spans="1:6" s="4" customFormat="1">
+    <row r="393" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
         <v>828</v>
       </c>
@@ -12891,7 +12916,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="394" spans="1:6" s="4" customFormat="1">
+    <row r="394" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
         <v>828</v>
       </c>
@@ -12905,7 +12930,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="395" spans="1:6" s="4" customFormat="1">
+    <row r="395" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
         <v>832</v>
       </c>
@@ -12919,7 +12944,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="396" spans="1:6" s="4" customFormat="1">
+    <row r="396" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
         <v>832</v>
       </c>
@@ -12933,7 +12958,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="397" spans="1:6" s="4" customFormat="1">
+    <row r="397" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
         <v>832</v>
       </c>
@@ -12947,7 +12972,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="398" spans="1:6" s="4" customFormat="1">
+    <row r="398" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>832</v>
       </c>
@@ -12961,7 +12986,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="399" spans="1:6" s="4" customFormat="1">
+    <row r="399" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
         <v>832</v>
       </c>
@@ -12975,7 +13000,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="400" spans="1:6" s="4" customFormat="1">
+    <row r="400" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
         <v>832</v>
       </c>
@@ -12989,7 +13014,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="401" spans="1:6" s="4" customFormat="1">
+    <row r="401" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
         <v>832</v>
       </c>
@@ -13003,7 +13028,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="402" spans="1:6" s="4" customFormat="1">
+    <row r="402" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
         <v>832</v>
       </c>
@@ -13014,7 +13039,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="403" spans="1:6" s="4" customFormat="1">
+    <row r="403" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
         <v>832</v>
       </c>
@@ -13028,7 +13053,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="404" spans="1:6" s="4" customFormat="1">
+    <row r="404" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
         <v>848</v>
       </c>
@@ -13045,7 +13070,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="405" spans="1:6" s="4" customFormat="1">
+    <row r="405" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
         <v>852</v>
       </c>
@@ -13059,7 +13084,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="406" spans="1:6" s="4" customFormat="1">
+    <row r="406" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
         <v>855</v>
       </c>
@@ -13073,7 +13098,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="407" spans="1:6" s="4" customFormat="1">
+    <row r="407" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
         <v>855</v>
       </c>
@@ -13090,7 +13115,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="408" spans="1:6" s="4" customFormat="1">
+    <row r="408" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
         <v>855</v>
       </c>
@@ -13104,7 +13129,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="409" spans="1:6" s="4" customFormat="1">
+    <row r="409" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
         <v>855</v>
       </c>
@@ -13121,7 +13146,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="410" spans="1:6" s="4" customFormat="1">
+    <row r="410" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
         <v>861</v>
       </c>
@@ -13138,7 +13163,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="411" spans="1:6" s="4" customFormat="1">
+    <row r="411" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
         <v>864</v>
       </c>
@@ -13158,7 +13183,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="412" spans="1:6" s="4" customFormat="1">
+    <row r="412" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
         <v>868</v>
       </c>
@@ -13172,7 +13197,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="413" spans="1:6" s="4" customFormat="1">
+    <row r="413" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4" t="s">
         <v>870</v>
       </c>
@@ -13192,7 +13217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="414" spans="1:6" s="4" customFormat="1">
+    <row r="414" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>872</v>
       </c>
@@ -13206,7 +13231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="415" spans="1:6" s="4" customFormat="1">
+    <row r="415" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
         <v>874</v>
       </c>
@@ -13223,7 +13248,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="416" spans="1:6" s="4" customFormat="1">
+    <row r="416" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
         <v>874</v>
       </c>
@@ -13243,7 +13268,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="417" spans="1:5" s="4" customFormat="1">
+    <row r="417" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
         <v>874</v>
       </c>
@@ -13260,7 +13285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="418" spans="1:5" s="4" customFormat="1">
+    <row r="418" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
         <v>880</v>
       </c>
@@ -13277,7 +13302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="419" spans="1:5" s="4" customFormat="1">
+    <row r="419" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
         <v>880</v>
       </c>
@@ -13294,7 +13319,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="420" spans="1:5" s="4" customFormat="1">
+    <row r="420" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
         <v>880</v>
       </c>
@@ -13308,7 +13333,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="421" spans="1:5" s="4" customFormat="1">
+    <row r="421" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
         <v>880</v>
       </c>
@@ -13319,7 +13344,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="422" spans="1:5" s="4" customFormat="1">
+    <row r="422" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
         <v>885</v>
       </c>
@@ -13333,7 +13358,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="423" spans="1:5" s="4" customFormat="1">
+    <row r="423" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4" t="s">
         <v>885</v>
       </c>
@@ -13350,7 +13375,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="424" spans="1:5" s="4" customFormat="1">
+    <row r="424" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
         <v>885</v>
       </c>
@@ -13367,7 +13392,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="425" spans="1:5" s="4" customFormat="1">
+    <row r="425" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
         <v>885</v>
       </c>
@@ -13381,7 +13406,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="426" spans="1:5" s="4" customFormat="1">
+    <row r="426" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4" t="s">
         <v>885</v>
       </c>
@@ -13398,7 +13423,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="427" spans="1:5" s="4" customFormat="1">
+    <row r="427" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4" t="s">
         <v>893</v>
       </c>
@@ -13415,7 +13440,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="428" spans="1:5" s="4" customFormat="1">
+    <row r="428" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4" t="s">
         <v>893</v>
       </c>
@@ -13429,7 +13454,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="429" spans="1:5" s="4" customFormat="1">
+    <row r="429" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4" t="s">
         <v>893</v>
       </c>
@@ -13443,7 +13468,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="430" spans="1:5" s="4" customFormat="1">
+    <row r="430" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
         <v>893</v>
       </c>
@@ -13454,7 +13479,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="431" spans="1:5" s="4" customFormat="1">
+    <row r="431" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4" t="s">
         <v>893</v>
       </c>
@@ -13468,7 +13493,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="432" spans="1:5" s="4" customFormat="1">
+    <row r="432" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
         <v>901</v>
       </c>
@@ -13482,7 +13507,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="433" spans="1:6" s="4" customFormat="1">
+    <row r="433" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4" t="s">
         <v>901</v>
       </c>
@@ -13502,7 +13527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="434" spans="1:6" s="4" customFormat="1">
+    <row r="434" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
         <v>901</v>
       </c>
@@ -13516,7 +13541,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="435" spans="1:6" s="4" customFormat="1">
+    <row r="435" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4" t="s">
         <v>905</v>
       </c>
@@ -13533,7 +13558,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="436" spans="1:6" s="4" customFormat="1">
+    <row r="436" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
         <v>905</v>
       </c>
@@ -13547,7 +13572,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="437" spans="1:6" s="4" customFormat="1">
+    <row r="437" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4" t="s">
         <v>905</v>
       </c>
@@ -13567,7 +13592,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="438" spans="1:6" s="4" customFormat="1">
+    <row r="438" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
         <v>905</v>
       </c>
@@ -13584,7 +13609,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="439" spans="1:6" s="4" customFormat="1">
+    <row r="439" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
         <v>913</v>
       </c>
@@ -13598,7 +13623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="440" spans="1:6" s="4" customFormat="1">
+    <row r="440" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
         <v>913</v>
       </c>
@@ -13612,7 +13637,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="441" spans="1:6" s="4" customFormat="1">
+    <row r="441" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
         <v>917</v>
       </c>
@@ -13626,7 +13651,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="442" spans="1:6" s="4" customFormat="1">
+    <row r="442" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
         <v>917</v>
       </c>
@@ -13640,7 +13665,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="443" spans="1:6" s="4" customFormat="1">
+    <row r="443" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
         <v>921</v>
       </c>
@@ -13654,7 +13679,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="444" spans="1:6" s="4" customFormat="1">
+    <row r="444" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
         <v>921</v>
       </c>
@@ -13668,7 +13693,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="445" spans="1:6" s="4" customFormat="1">
+    <row r="445" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
         <v>921</v>
       </c>
@@ -13682,7 +13707,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="446" spans="1:6" s="4" customFormat="1">
+    <row r="446" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4" t="s">
         <v>925</v>
       </c>
@@ -13696,7 +13721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="447" spans="1:6" s="4" customFormat="1">
+    <row r="447" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4" t="s">
         <v>925</v>
       </c>
@@ -13710,7 +13735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="448" spans="1:6" s="4" customFormat="1">
+    <row r="448" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>928</v>
       </c>
@@ -13724,7 +13749,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="449" spans="1:6" s="4" customFormat="1">
+    <row r="449" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="4" t="s">
         <v>928</v>
       </c>
@@ -13741,7 +13766,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="450" spans="1:6" s="4" customFormat="1">
+    <row r="450" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="4" t="s">
         <v>931</v>
       </c>
@@ -13755,7 +13780,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="451" spans="1:6" s="4" customFormat="1">
+    <row r="451" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4" t="s">
         <v>931</v>
       </c>
@@ -13772,7 +13797,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="452" spans="1:6" s="4" customFormat="1">
+    <row r="452" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="4" t="s">
         <v>931</v>
       </c>
@@ -13789,7 +13814,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="453" spans="1:6" s="4" customFormat="1">
+    <row r="453" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="4" t="s">
         <v>931</v>
       </c>
@@ -13806,7 +13831,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="454" spans="1:6" s="4" customFormat="1">
+    <row r="454" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
         <v>931</v>
       </c>
@@ -13820,7 +13845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="455" spans="1:6" s="4" customFormat="1">
+    <row r="455" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
         <v>941</v>
       </c>
@@ -13834,7 +13859,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="456" spans="1:6" s="4" customFormat="1">
+    <row r="456" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
         <v>941</v>
       </c>
@@ -13848,7 +13873,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="457" spans="1:6" s="4" customFormat="1">
+    <row r="457" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
         <v>941</v>
       </c>
@@ -13862,7 +13887,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="458" spans="1:6" s="4" customFormat="1">
+    <row r="458" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
         <v>941</v>
       </c>
@@ -13876,7 +13901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="459" spans="1:6" s="4" customFormat="1">
+    <row r="459" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="4" t="s">
         <v>946</v>
       </c>
@@ -13890,7 +13915,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="460" spans="1:6" s="4" customFormat="1">
+    <row r="460" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
         <v>948</v>
       </c>
@@ -13904,7 +13929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="461" spans="1:6" s="4" customFormat="1">
+    <row r="461" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="4" t="s">
         <v>948</v>
       </c>
@@ -13918,7 +13943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="462" spans="1:6" s="4" customFormat="1">
+    <row r="462" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
         <v>948</v>
       </c>
@@ -13938,7 +13963,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="463" spans="1:6" s="4" customFormat="1">
+    <row r="463" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
         <v>955</v>
       </c>
@@ -13955,7 +13980,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="464" spans="1:6" s="4" customFormat="1">
+    <row r="464" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
         <v>958</v>
       </c>
@@ -13972,7 +13997,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="465" spans="1:6" s="4" customFormat="1">
+    <row r="465" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
         <v>958</v>
       </c>
@@ -13986,7 +14011,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="466" spans="1:6" s="4" customFormat="1">
+    <row r="466" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
         <v>964</v>
       </c>
@@ -14000,7 +14025,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="467" spans="1:6" s="4" customFormat="1">
+    <row r="467" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
         <v>967</v>
       </c>
@@ -14014,7 +14039,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="468" spans="1:6" s="4" customFormat="1">
+    <row r="468" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
         <v>967</v>
       </c>
@@ -14028,7 +14053,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="469" spans="1:6" s="4" customFormat="1">
+    <row r="469" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="4" t="s">
         <v>967</v>
       </c>
@@ -14045,7 +14070,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="470" spans="1:6" s="4" customFormat="1">
+    <row r="470" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
         <v>967</v>
       </c>
@@ -14062,7 +14087,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="471" spans="1:6" s="4" customFormat="1">
+    <row r="471" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
         <v>967</v>
       </c>
@@ -14076,7 +14101,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="472" spans="1:6" s="4" customFormat="1">
+    <row r="472" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
         <v>978</v>
       </c>
@@ -14090,7 +14115,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="473" spans="1:6" s="4" customFormat="1">
+    <row r="473" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
         <v>980</v>
       </c>
@@ -14104,7 +14129,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="474" spans="1:6" s="4" customFormat="1">
+    <row r="474" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="4" t="s">
         <v>980</v>
       </c>
@@ -14118,7 +14143,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="475" spans="1:6" s="4" customFormat="1">
+    <row r="475" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="4" t="s">
         <v>980</v>
       </c>
@@ -14138,7 +14163,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="476" spans="1:6" s="4" customFormat="1">
+    <row r="476" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
         <v>986</v>
       </c>
@@ -14152,7 +14177,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="477" spans="1:6" s="4" customFormat="1">
+    <row r="477" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
         <v>989</v>
       </c>
@@ -14166,7 +14191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="478" spans="1:6" s="4" customFormat="1">
+    <row r="478" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="4" t="s">
         <v>991</v>
       </c>
@@ -14180,7 +14205,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="479" spans="1:6" s="4" customFormat="1">
+    <row r="479" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="4" t="s">
         <v>991</v>
       </c>
@@ -14197,7 +14222,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="480" spans="1:6" s="4" customFormat="1">
+    <row r="480" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
         <v>996</v>
       </c>
@@ -14211,7 +14236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="481" spans="1:6" s="4" customFormat="1">
+    <row r="481" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
         <v>996</v>
       </c>
@@ -14225,7 +14250,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="482" spans="1:6" s="4" customFormat="1">
+    <row r="482" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
         <v>996</v>
       </c>
@@ -14239,7 +14264,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="483" spans="1:6" s="4" customFormat="1">
+    <row r="483" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
         <v>1002</v>
       </c>
@@ -14259,7 +14284,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="484" spans="1:6" s="4" customFormat="1">
+    <row r="484" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="4" t="s">
         <v>1002</v>
       </c>
@@ -14273,7 +14298,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="485" spans="1:6" s="4" customFormat="1">
+    <row r="485" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
         <v>1002</v>
       </c>
@@ -14284,7 +14309,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="486" spans="1:6" s="4" customFormat="1">
+    <row r="486" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="4" t="s">
         <v>1002</v>
       </c>
@@ -14301,7 +14326,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="487" spans="1:6" s="4" customFormat="1">
+    <row r="487" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="4" t="s">
         <v>1011</v>
       </c>
@@ -14315,7 +14340,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="488" spans="1:6" s="4" customFormat="1">
+    <row r="488" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="4" t="s">
         <v>1013</v>
       </c>
@@ -14335,7 +14360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="489" spans="1:6" s="4" customFormat="1">
+    <row r="489" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="4" t="s">
         <v>1016</v>
       </c>
@@ -14349,7 +14374,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="490" spans="1:6" s="4" customFormat="1">
+    <row r="490" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
         <v>1016</v>
       </c>
@@ -14363,7 +14388,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="491" spans="1:6" s="4" customFormat="1">
+    <row r="491" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
         <v>1016</v>
       </c>
@@ -14377,7 +14402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="492" spans="1:6" s="4" customFormat="1">
+    <row r="492" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="4" t="s">
         <v>1022</v>
       </c>
@@ -14391,7 +14416,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="493" spans="1:6" s="4" customFormat="1">
+    <row r="493" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="4" t="s">
         <v>1022</v>
       </c>
@@ -14405,7 +14430,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="494" spans="1:6" s="4" customFormat="1">
+    <row r="494" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="4" t="s">
         <v>1022</v>
       </c>
@@ -14419,7 +14444,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="495" spans="1:6" s="4" customFormat="1">
+    <row r="495" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="4" t="s">
         <v>1022</v>
       </c>
@@ -14433,7 +14458,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="496" spans="1:6" s="4" customFormat="1">
+    <row r="496" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
         <v>1028</v>
       </c>
@@ -14450,7 +14475,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="497" spans="1:9" s="4" customFormat="1">
+    <row r="497" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="4" t="s">
         <v>1028</v>
       </c>
@@ -14464,7 +14489,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="498" spans="1:9" s="4" customFormat="1">
+    <row r="498" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="4" t="s">
         <v>1032</v>
       </c>
@@ -14478,7 +14503,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="499" spans="1:9" s="4" customFormat="1">
+    <row r="499" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="4" t="s">
         <v>1034</v>
       </c>
@@ -14495,7 +14520,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="500" spans="1:9" s="4" customFormat="1">
+    <row r="500" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="4" t="s">
         <v>1038</v>
       </c>
@@ -14512,7 +14537,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="501" spans="1:9" s="4" customFormat="1">
+    <row r="501" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="4" t="s">
         <v>1038</v>
       </c>
@@ -14529,7 +14554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="502" spans="1:9" s="4" customFormat="1">
+    <row r="502" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="4" t="s">
         <v>1038</v>
       </c>
@@ -14543,7 +14568,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="503" spans="1:9" s="4" customFormat="1">
+    <row r="503" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="4" t="s">
         <v>1042</v>
       </c>
@@ -14572,7 +14597,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="504" spans="1:9" s="4" customFormat="1">
+    <row r="504" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="4" t="s">
         <v>1042</v>
       </c>
@@ -14586,7 +14611,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="505" spans="1:9" s="4" customFormat="1">
+    <row r="505" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="4" t="s">
         <v>1049</v>
       </c>
@@ -14597,7 +14622,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="506" spans="1:9" s="4" customFormat="1">
+    <row r="506" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="4" t="s">
         <v>1049</v>
       </c>
@@ -14614,7 +14639,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="507" spans="1:9" s="4" customFormat="1">
+    <row r="507" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="4" t="s">
         <v>1049</v>
       </c>
@@ -14628,7 +14653,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="508" spans="1:9" s="4" customFormat="1">
+    <row r="508" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="4" t="s">
         <v>1049</v>
       </c>
@@ -14642,7 +14667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="509" spans="1:9" s="4" customFormat="1">
+    <row r="509" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="4" t="s">
         <v>1056</v>
       </c>
@@ -14656,7 +14681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="510" spans="1:9" s="4" customFormat="1">
+    <row r="510" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="4" t="s">
         <v>1056</v>
       </c>
@@ -14670,7 +14695,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="511" spans="1:9" s="4" customFormat="1">
+    <row r="511" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="4" t="s">
         <v>1056</v>
       </c>
@@ -14690,7 +14715,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="512" spans="1:9" s="4" customFormat="1">
+    <row r="512" spans="1:9" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4" t="s">
         <v>1061</v>
       </c>
@@ -14707,7 +14732,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="513" spans="1:7" s="4" customFormat="1">
+    <row r="513" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="4" t="s">
         <v>1061</v>
       </c>
@@ -14721,7 +14746,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="514" spans="1:7" s="4" customFormat="1">
+    <row r="514" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="4" t="s">
         <v>1061</v>
       </c>
@@ -14738,7 +14763,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="515" spans="1:7" s="4" customFormat="1">
+    <row r="515" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="4" t="s">
         <v>1065</v>
       </c>
@@ -14752,7 +14777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="516" spans="1:7" s="4" customFormat="1">
+    <row r="516" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="4" t="s">
         <v>1065</v>
       </c>
@@ -14766,7 +14791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="517" spans="1:7" s="4" customFormat="1">
+    <row r="517" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="4" t="s">
         <v>1068</v>
       </c>
@@ -14780,7 +14805,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="518" spans="1:7" s="4" customFormat="1">
+    <row r="518" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="4" t="s">
         <v>1068</v>
       </c>
@@ -14794,7 +14819,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="519" spans="1:7" s="4" customFormat="1">
+    <row r="519" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="4" t="s">
         <v>1072</v>
       </c>
@@ -14811,7 +14836,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="520" spans="1:7" s="4" customFormat="1">
+    <row r="520" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="4" t="s">
         <v>1072</v>
       </c>
@@ -14825,7 +14850,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="521" spans="1:7" s="4" customFormat="1">
+    <row r="521" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4" t="s">
         <v>1072</v>
       </c>
@@ -14839,7 +14864,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="522" spans="1:7" s="4" customFormat="1">
+    <row r="522" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="4" t="s">
         <v>1080</v>
       </c>
@@ -14862,7 +14887,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="523" spans="1:7" s="4" customFormat="1">
+    <row r="523" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="4" t="s">
         <v>1086</v>
       </c>
@@ -14879,7 +14904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="524" spans="1:7" s="4" customFormat="1">
+    <row r="524" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="4" t="s">
         <v>1088</v>
       </c>
@@ -14890,7 +14915,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="525" spans="1:7" s="4" customFormat="1">
+    <row r="525" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="4" t="s">
         <v>1090</v>
       </c>
@@ -14904,7 +14929,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="526" spans="1:7" s="4" customFormat="1">
+    <row r="526" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="4" t="s">
         <v>1092</v>
       </c>
@@ -14918,7 +14943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="527" spans="1:7" s="4" customFormat="1">
+    <row r="527" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="4" t="s">
         <v>1094</v>
       </c>
@@ -14932,7 +14957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="528" spans="1:7" s="4" customFormat="1">
+    <row r="528" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="4" t="s">
         <v>1096</v>
       </c>
@@ -14946,7 +14971,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="529" spans="1:8" s="4" customFormat="1">
+    <row r="529" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="4" t="s">
         <v>1096</v>
       </c>
@@ -14960,7 +14985,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="530" spans="1:8" s="4" customFormat="1">
+    <row r="530" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="4" t="s">
         <v>1096</v>
       </c>
@@ -14977,7 +15002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="531" spans="1:8" s="4" customFormat="1">
+    <row r="531" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="4" t="s">
         <v>1096</v>
       </c>
@@ -14991,7 +15016,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="532" spans="1:8" s="4" customFormat="1">
+    <row r="532" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="4" t="s">
         <v>1102</v>
       </c>
@@ -15014,7 +15039,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="533" spans="1:8" s="4" customFormat="1">
+    <row r="533" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="4" t="s">
         <v>1102</v>
       </c>
@@ -15028,7 +15053,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="534" spans="1:8" s="4" customFormat="1">
+    <row r="534" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="4" t="s">
         <v>1102</v>
       </c>
@@ -15045,7 +15070,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="535" spans="1:8" s="4" customFormat="1">
+    <row r="535" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="4" t="s">
         <v>1102</v>
       </c>
@@ -15059,7 +15084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="536" spans="1:8" s="4" customFormat="1">
+    <row r="536" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="4" t="s">
         <v>1102</v>
       </c>
@@ -15085,7 +15110,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="537" spans="1:8" s="4" customFormat="1">
+    <row r="537" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="4" t="s">
         <v>1110</v>
       </c>
@@ -15102,7 +15127,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="538" spans="1:8" s="4" customFormat="1">
+    <row r="538" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="4" t="s">
         <v>1110</v>
       </c>
@@ -15116,7 +15141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="539" spans="1:8" s="4" customFormat="1">
+    <row r="539" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="4" t="s">
         <v>1110</v>
       </c>
@@ -15130,7 +15155,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="540" spans="1:8" s="4" customFormat="1">
+    <row r="540" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="4" t="s">
         <v>1117</v>
       </c>
@@ -15147,7 +15172,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="541" spans="1:8" s="4" customFormat="1">
+    <row r="541" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="4" t="s">
         <v>1117</v>
       </c>
@@ -15161,7 +15186,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="542" spans="1:8" s="4" customFormat="1">
+    <row r="542" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4" t="s">
         <v>1123</v>
       </c>
@@ -15175,7 +15200,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="543" spans="1:8" s="4" customFormat="1">
+    <row r="543" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="4" t="s">
         <v>1123</v>
       </c>
@@ -15192,7 +15217,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="544" spans="1:8" s="4" customFormat="1">
+    <row r="544" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="4" t="s">
         <v>1128</v>
       </c>
@@ -15206,7 +15231,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="545" spans="1:7" s="4" customFormat="1">
+    <row r="545" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="4" t="s">
         <v>1130</v>
       </c>
@@ -15223,7 +15248,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="546" spans="1:7" s="4" customFormat="1">
+    <row r="546" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="4" t="s">
         <v>1132</v>
       </c>
@@ -15237,7 +15262,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="547" spans="1:7" s="4" customFormat="1">
+    <row r="547" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="4" t="s">
         <v>1132</v>
       </c>
@@ -15251,7 +15276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="548" spans="1:7" s="4" customFormat="1">
+    <row r="548" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="4" t="s">
         <v>1132</v>
       </c>
@@ -15265,7 +15290,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="549" spans="1:7" s="4" customFormat="1">
+    <row r="549" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="4" t="s">
         <v>1132</v>
       </c>
@@ -15282,7 +15307,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="550" spans="1:7" s="4" customFormat="1">
+    <row r="550" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="4" t="s">
         <v>1138</v>
       </c>
@@ -15296,7 +15321,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="551" spans="1:7" s="4" customFormat="1">
+    <row r="551" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="4" t="s">
         <v>1138</v>
       </c>
@@ -15313,7 +15338,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="552" spans="1:7" s="4" customFormat="1">
+    <row r="552" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="4" t="s">
         <v>1138</v>
       </c>
@@ -15327,7 +15352,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="553" spans="1:7" s="4" customFormat="1">
+    <row r="553" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="4" t="s">
         <v>1138</v>
       </c>
@@ -15347,7 +15372,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="554" spans="1:7" s="4" customFormat="1">
+    <row r="554" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="4" t="s">
         <v>1138</v>
       </c>
@@ -15367,7 +15392,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="555" spans="1:7" s="4" customFormat="1">
+    <row r="555" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="4" t="s">
         <v>1146</v>
       </c>
@@ -15390,7 +15415,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="556" spans="1:7" s="4" customFormat="1">
+    <row r="556" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="4" t="s">
         <v>1146</v>
       </c>
@@ -15407,7 +15432,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="557" spans="1:7" s="4" customFormat="1">
+    <row r="557" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="4" t="s">
         <v>1146</v>
       </c>
@@ -15421,7 +15446,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="558" spans="1:7" s="4" customFormat="1">
+    <row r="558" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4" t="s">
         <v>1153</v>
       </c>
@@ -15438,7 +15463,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="559" spans="1:7" s="4" customFormat="1">
+    <row r="559" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4" t="s">
         <v>1153</v>
       </c>
@@ -15452,7 +15477,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="560" spans="1:7" s="4" customFormat="1">
+    <row r="560" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="4" t="s">
         <v>1153</v>
       </c>
@@ -15469,7 +15494,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="561" spans="1:6" s="4" customFormat="1">
+    <row r="561" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="4" t="s">
         <v>1159</v>
       </c>
@@ -15486,7 +15511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="562" spans="1:6" s="4" customFormat="1">
+    <row r="562" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="4" t="s">
         <v>1161</v>
       </c>
@@ -15500,7 +15525,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="563" spans="1:6" s="4" customFormat="1">
+    <row r="563" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="4" t="s">
         <v>1161</v>
       </c>
@@ -15514,7 +15539,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="564" spans="1:6" s="4" customFormat="1">
+    <row r="564" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="4" t="s">
         <v>1165</v>
       </c>
@@ -15534,7 +15559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="565" spans="1:6" s="4" customFormat="1">
+    <row r="565" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="4" t="s">
         <v>1167</v>
       </c>
@@ -15548,7 +15573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="566" spans="1:6" s="4" customFormat="1">
+    <row r="566" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="4" t="s">
         <v>1169</v>
       </c>
@@ -15562,7 +15587,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="567" spans="1:6" s="4" customFormat="1">
+    <row r="567" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="4" t="s">
         <v>1171</v>
       </c>
@@ -15579,7 +15604,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="568" spans="1:6" s="4" customFormat="1">
+    <row r="568" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="4" t="s">
         <v>1171</v>
       </c>
@@ -15596,7 +15621,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="569" spans="1:6" s="4" customFormat="1">
+    <row r="569" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="4" t="s">
         <v>1176</v>
       </c>
@@ -15610,7 +15635,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="570" spans="1:6" s="4" customFormat="1">
+    <row r="570" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="4" t="s">
         <v>1179</v>
       </c>
@@ -15624,7 +15649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="571" spans="1:6" s="4" customFormat="1">
+    <row r="571" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="4" t="s">
         <v>1181</v>
       </c>
@@ -15638,7 +15663,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="572" spans="1:6" s="4" customFormat="1">
+    <row r="572" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="4" t="s">
         <v>1181</v>
       </c>
@@ -15652,7 +15677,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="573" spans="1:6" s="4" customFormat="1">
+    <row r="573" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="4" t="s">
         <v>1184</v>
       </c>
@@ -15666,7 +15691,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="574" spans="1:6" s="4" customFormat="1">
+    <row r="574" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="4" t="s">
         <v>1184</v>
       </c>
@@ -15683,7 +15708,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="575" spans="1:6" s="4" customFormat="1">
+    <row r="575" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="4" t="s">
         <v>1189</v>
       </c>
@@ -15697,7 +15722,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="576" spans="1:6" s="4" customFormat="1">
+    <row r="576" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="4" t="s">
         <v>1189</v>
       </c>
@@ -15714,7 +15739,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="577" spans="1:6" s="4" customFormat="1">
+    <row r="577" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="4" t="s">
         <v>1193</v>
       </c>
@@ -15731,7 +15756,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="578" spans="1:6" s="4" customFormat="1">
+    <row r="578" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="4" t="s">
         <v>1197</v>
       </c>
@@ -15745,7 +15770,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="579" spans="1:6" s="4" customFormat="1">
+    <row r="579" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="4" t="s">
         <v>1197</v>
       </c>
@@ -15762,7 +15787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="580" spans="1:6" s="4" customFormat="1">
+    <row r="580" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="4" t="s">
         <v>1197</v>
       </c>
@@ -15776,7 +15801,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="581" spans="1:6" s="4" customFormat="1">
+    <row r="581" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="4" t="s">
         <v>1203</v>
       </c>
@@ -15790,7 +15815,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="582" spans="1:6" s="4" customFormat="1">
+    <row r="582" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="4" t="s">
         <v>1206</v>
       </c>
@@ -15804,7 +15829,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="583" spans="1:6" s="4" customFormat="1">
+    <row r="583" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="4" t="s">
         <v>1206</v>
       </c>
@@ -15821,7 +15846,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="584" spans="1:6" s="4" customFormat="1">
+    <row r="584" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="4" t="s">
         <v>1206</v>
       </c>
@@ -15841,7 +15866,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="585" spans="1:6" s="4" customFormat="1">
+    <row r="585" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="4" t="s">
         <v>1206</v>
       </c>
@@ -15855,7 +15880,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="586" spans="1:6" s="4" customFormat="1">
+    <row r="586" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="4" t="s">
         <v>1206</v>
       </c>
@@ -15872,7 +15897,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="587" spans="1:6" s="4" customFormat="1">
+    <row r="587" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="4" t="s">
         <v>1217</v>
       </c>
@@ -15889,7 +15914,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="588" spans="1:6" s="4" customFormat="1">
+    <row r="588" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="4" t="s">
         <v>1217</v>
       </c>
@@ -15903,7 +15928,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="589" spans="1:6" s="4" customFormat="1">
+    <row r="589" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="4" t="s">
         <v>1217</v>
       </c>
@@ -15917,7 +15942,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="590" spans="1:6" s="4" customFormat="1">
+    <row r="590" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="4" t="s">
         <v>1217</v>
       </c>
@@ -15931,7 +15956,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="591" spans="1:6" s="4" customFormat="1">
+    <row r="591" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="4" t="s">
         <v>1217</v>
       </c>
@@ -15948,7 +15973,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="592" spans="1:6" s="4" customFormat="1">
+    <row r="592" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="4" t="s">
         <v>1227</v>
       </c>
@@ -15962,7 +15987,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="593" spans="1:5" s="4" customFormat="1">
+    <row r="593" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="4" t="s">
         <v>1229</v>
       </c>
@@ -15976,7 +16001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="594" spans="1:5" s="4" customFormat="1">
+    <row r="594" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="4" t="s">
         <v>1231</v>
       </c>
@@ -15990,7 +16015,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="595" spans="1:5" s="4" customFormat="1">
+    <row r="595" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="4" t="s">
         <v>1231</v>
       </c>
@@ -16004,7 +16029,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="596" spans="1:5" s="4" customFormat="1">
+    <row r="596" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="4" t="s">
         <v>1236</v>
       </c>
@@ -16018,7 +16043,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="597" spans="1:5" s="4" customFormat="1">
+    <row r="597" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="4" t="s">
         <v>1236</v>
       </c>
@@ -16032,7 +16057,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="598" spans="1:5" s="4" customFormat="1">
+    <row r="598" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="4" t="s">
         <v>1236</v>
       </c>
@@ -16049,7 +16074,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="599" spans="1:5" s="4" customFormat="1">
+    <row r="599" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="4" t="s">
         <v>1240</v>
       </c>
@@ -16063,7 +16088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="600" spans="1:5" s="4" customFormat="1">
+    <row r="600" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="4" t="s">
         <v>1240</v>
       </c>
@@ -16077,7 +16102,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="601" spans="1:5" s="4" customFormat="1">
+    <row r="601" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="4" t="s">
         <v>1240</v>
       </c>
@@ -16091,7 +16116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="602" spans="1:5" s="4" customFormat="1">
+    <row r="602" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="4" t="s">
         <v>1240</v>
       </c>
@@ -16105,7 +16130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="603" spans="1:5" s="4" customFormat="1">
+    <row r="603" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="4" t="s">
         <v>1240</v>
       </c>
@@ -16119,7 +16144,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="604" spans="1:5" s="4" customFormat="1">
+    <row r="604" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="4" t="s">
         <v>1240</v>
       </c>
@@ -16133,7 +16158,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="605" spans="1:5" s="4" customFormat="1">
+    <row r="605" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="4" t="s">
         <v>1249</v>
       </c>
@@ -16147,7 +16172,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="606" spans="1:5" s="4" customFormat="1">
+    <row r="606" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="4" t="s">
         <v>1249</v>
       </c>
@@ -16164,7 +16189,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="607" spans="1:5" s="4" customFormat="1">
+    <row r="607" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="4" t="s">
         <v>1253</v>
       </c>
@@ -16178,7 +16203,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="608" spans="1:5" s="4" customFormat="1">
+    <row r="608" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="4" t="s">
         <v>1253</v>
       </c>
@@ -16192,7 +16217,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="609" spans="1:7" s="4" customFormat="1">
+    <row r="609" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="4" t="s">
         <v>1253</v>
       </c>
@@ -16206,7 +16231,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="610" spans="1:7" s="4" customFormat="1">
+    <row r="610" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="4" t="s">
         <v>1253</v>
       </c>
@@ -16220,7 +16245,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="611" spans="1:7" s="4" customFormat="1">
+    <row r="611" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="4" t="s">
         <v>1261</v>
       </c>
@@ -16234,7 +16259,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="612" spans="1:7" s="4" customFormat="1">
+    <row r="612" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="4" t="s">
         <v>1264</v>
       </c>
@@ -16257,7 +16282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="613" spans="1:7" s="4" customFormat="1">
+    <row r="613" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="4" t="s">
         <v>1264</v>
       </c>
@@ -16271,7 +16296,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="614" spans="1:7" s="4" customFormat="1">
+    <row r="614" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="4" t="s">
         <v>1264</v>
       </c>
@@ -16288,7 +16313,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="615" spans="1:7" s="4" customFormat="1">
+    <row r="615" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="4" t="s">
         <v>1270</v>
       </c>
@@ -16302,7 +16327,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="616" spans="1:7" s="4" customFormat="1">
+    <row r="616" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="4" t="s">
         <v>1270</v>
       </c>
@@ -16313,7 +16338,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="617" spans="1:7" s="4" customFormat="1">
+    <row r="617" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="4" t="s">
         <v>1273</v>
       </c>
@@ -16327,7 +16352,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="618" spans="1:7" s="4" customFormat="1">
+    <row r="618" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="4" t="s">
         <v>1275</v>
       </c>
@@ -16341,7 +16366,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="619" spans="1:7" s="4" customFormat="1">
+    <row r="619" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="4" t="s">
         <v>1275</v>
       </c>
@@ -16364,7 +16389,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="620" spans="1:7" s="4" customFormat="1">
+    <row r="620" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="4" t="s">
         <v>1280</v>
       </c>
@@ -16378,7 +16403,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="621" spans="1:7" s="4" customFormat="1">
+    <row r="621" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="4" t="s">
         <v>1283</v>
       </c>
@@ -16392,7 +16417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="622" spans="1:7" s="4" customFormat="1">
+    <row r="622" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="4" t="s">
         <v>1283</v>
       </c>
@@ -16412,7 +16437,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="623" spans="1:7" s="4" customFormat="1">
+    <row r="623" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="4" t="s">
         <v>1283</v>
       </c>
@@ -16426,7 +16451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="624" spans="1:7" s="4" customFormat="1">
+    <row r="624" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="4" t="s">
         <v>1283</v>
       </c>
@@ -16440,7 +16465,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="625" spans="1:7" s="4" customFormat="1">
+    <row r="625" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="4" t="s">
         <v>1283</v>
       </c>
@@ -16454,7 +16479,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="626" spans="1:7" s="4" customFormat="1">
+    <row r="626" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="4" t="s">
         <v>1290</v>
       </c>
@@ -16477,7 +16502,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="627" spans="1:7" s="4" customFormat="1">
+    <row r="627" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="4" t="s">
         <v>1292</v>
       </c>
@@ -16494,7 +16519,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="628" spans="1:7" s="4" customFormat="1">
+    <row r="628" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="4" t="s">
         <v>1294</v>
       </c>
@@ -16508,7 +16533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="629" spans="1:7" s="4" customFormat="1">
+    <row r="629" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="4" t="s">
         <v>1294</v>
       </c>
@@ -16525,7 +16550,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="630" spans="1:7" s="4" customFormat="1">
+    <row r="630" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="4" t="s">
         <v>1294</v>
       </c>
@@ -16539,7 +16564,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="631" spans="1:7" s="4" customFormat="1">
+    <row r="631" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="4" t="s">
         <v>1301</v>
       </c>
@@ -16553,7 +16578,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="632" spans="1:7" s="4" customFormat="1">
+    <row r="632" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="4" t="s">
         <v>1301</v>
       </c>
@@ -16570,7 +16595,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="633" spans="1:7" s="4" customFormat="1">
+    <row r="633" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="4" t="s">
         <v>1301</v>
       </c>
@@ -16587,7 +16612,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="634" spans="1:7" s="4" customFormat="1">
+    <row r="634" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="4" t="s">
         <v>1301</v>
       </c>
@@ -16601,7 +16626,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="635" spans="1:7" s="4" customFormat="1">
+    <row r="635" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="4" t="s">
         <v>1311</v>
       </c>
@@ -16615,7 +16640,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="636" spans="1:7" s="4" customFormat="1">
+    <row r="636" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="4" t="s">
         <v>1311</v>
       </c>
@@ -16629,7 +16654,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="637" spans="1:7" s="4" customFormat="1">
+    <row r="637" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="4" t="s">
         <v>1314</v>
       </c>
@@ -16643,7 +16668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="638" spans="1:7" s="4" customFormat="1">
+    <row r="638" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="4" t="s">
         <v>1316</v>
       </c>
@@ -16666,7 +16691,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="639" spans="1:7" s="4" customFormat="1">
+    <row r="639" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="4" t="s">
         <v>1316</v>
       </c>
@@ -16680,7 +16705,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="640" spans="1:7" s="4" customFormat="1">
+    <row r="640" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="4" t="s">
         <v>1316</v>
       </c>
@@ -16694,7 +16719,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="641" spans="1:5" s="4" customFormat="1">
+    <row r="641" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="4" t="s">
         <v>1321</v>
       </c>
@@ -16708,7 +16733,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="642" spans="1:5" s="4" customFormat="1">
+    <row r="642" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="4" t="s">
         <v>1321</v>
       </c>
@@ -16719,7 +16744,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="643" spans="1:5" s="4" customFormat="1">
+    <row r="643" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="4" t="s">
         <v>1321</v>
       </c>
@@ -16733,7 +16758,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="644" spans="1:5" s="4" customFormat="1">
+    <row r="644" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="4" t="s">
         <v>1321</v>
       </c>
@@ -16750,7 +16775,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="645" spans="1:5" s="4" customFormat="1">
+    <row r="645" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="4" t="s">
         <v>1321</v>
       </c>
@@ -16761,7 +16786,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="646" spans="1:5" s="4" customFormat="1">
+    <row r="646" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="4" t="s">
         <v>1321</v>
       </c>
@@ -16772,7 +16797,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="647" spans="1:5" s="4" customFormat="1">
+    <row r="647" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="4" t="s">
         <v>1329</v>
       </c>
@@ -16789,7 +16814,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="648" spans="1:5" s="4" customFormat="1">
+    <row r="648" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="4" t="s">
         <v>1331</v>
       </c>
@@ -16803,7 +16828,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="649" spans="1:5" s="4" customFormat="1">
+    <row r="649" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="4" t="s">
         <v>1331</v>
       </c>
@@ -16820,7 +16845,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="650" spans="1:5" s="4" customFormat="1">
+    <row r="650" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="4" t="s">
         <v>1331</v>
       </c>
@@ -16834,7 +16859,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="651" spans="1:5" s="4" customFormat="1">
+    <row r="651" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="4" t="s">
         <v>1337</v>
       </c>
@@ -16848,7 +16873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="652" spans="1:5" s="4" customFormat="1">
+    <row r="652" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="4" t="s">
         <v>1339</v>
       </c>
@@ -16862,7 +16887,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="653" spans="1:5" s="4" customFormat="1">
+    <row r="653" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="4" t="s">
         <v>1339</v>
       </c>
@@ -16876,7 +16901,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="654" spans="1:5" s="4" customFormat="1">
+    <row r="654" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="4" t="s">
         <v>1339</v>
       </c>
@@ -16890,7 +16915,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="655" spans="1:5" s="4" customFormat="1">
+    <row r="655" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="4" t="s">
         <v>1345</v>
       </c>
@@ -16904,7 +16929,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="656" spans="1:5" s="4" customFormat="1">
+    <row r="656" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="4" t="s">
         <v>1345</v>
       </c>
@@ -16918,7 +16943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="657" spans="1:5" s="4" customFormat="1">
+    <row r="657" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="4" t="s">
         <v>1348</v>
       </c>
@@ -16932,7 +16957,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="658" spans="1:5" s="4" customFormat="1">
+    <row r="658" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="4" t="s">
         <v>1348</v>
       </c>
@@ -16949,7 +16974,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="659" spans="1:5" s="4" customFormat="1">
+    <row r="659" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="4" t="s">
         <v>1352</v>
       </c>
@@ -16963,7 +16988,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="660" spans="1:5" s="4" customFormat="1">
+    <row r="660" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="4" t="s">
         <v>1354</v>
       </c>
@@ -16980,7 +17005,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="661" spans="1:5" s="4" customFormat="1">
+    <row r="661" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="4" t="s">
         <v>1357</v>
       </c>
@@ -16994,7 +17019,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="662" spans="1:5" s="4" customFormat="1">
+    <row r="662" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="4" t="s">
         <v>1357</v>
       </c>
@@ -17011,7 +17036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="663" spans="1:5" s="4" customFormat="1">
+    <row r="663" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="4" t="s">
         <v>1357</v>
       </c>
@@ -17025,7 +17050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="664" spans="1:5" s="4" customFormat="1">
+    <row r="664" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="4" t="s">
         <v>1361</v>
       </c>
@@ -17039,7 +17064,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="665" spans="1:5" s="4" customFormat="1">
+    <row r="665" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="4" t="s">
         <v>1363</v>
       </c>
@@ -17053,7 +17078,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="666" spans="1:5" s="4" customFormat="1">
+    <row r="666" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="4" t="s">
         <v>1363</v>
       </c>
@@ -17064,7 +17089,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="667" spans="1:5" s="4" customFormat="1">
+    <row r="667" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="4" t="s">
         <v>1363</v>
       </c>
@@ -17078,7 +17103,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="668" spans="1:5" s="4" customFormat="1">
+    <row r="668" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="4" t="s">
         <v>1363</v>
       </c>
@@ -17092,7 +17117,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="669" spans="1:5" s="4" customFormat="1">
+    <row r="669" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="4" t="s">
         <v>1370</v>
       </c>
@@ -17109,7 +17134,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="670" spans="1:5" s="4" customFormat="1">
+    <row r="670" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="4" t="s">
         <v>1370</v>
       </c>
@@ -17123,7 +17148,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="671" spans="1:5" s="4" customFormat="1">
+    <row r="671" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="4" t="s">
         <v>1370</v>
       </c>
@@ -17134,7 +17159,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="672" spans="1:5" s="4" customFormat="1">
+    <row r="672" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="4" t="s">
         <v>1370</v>
       </c>
@@ -17148,7 +17173,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="673" spans="1:6" s="4" customFormat="1">
+    <row r="673" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="4" t="s">
         <v>1370</v>
       </c>
@@ -17162,7 +17187,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="674" spans="1:6" s="4" customFormat="1">
+    <row r="674" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="4" t="s">
         <v>1370</v>
       </c>
@@ -17176,7 +17201,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="675" spans="1:6" s="4" customFormat="1">
+    <row r="675" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="4" t="s">
         <v>1370</v>
       </c>
@@ -17190,7 +17215,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="676" spans="1:6" s="4" customFormat="1">
+    <row r="676" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="4" t="s">
         <v>1384</v>
       </c>
@@ -17207,7 +17232,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="677" spans="1:6" s="4" customFormat="1">
+    <row r="677" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="4" t="s">
         <v>1384</v>
       </c>
@@ -17224,7 +17249,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="678" spans="1:6" s="4" customFormat="1">
+    <row r="678" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="4" t="s">
         <v>1390</v>
       </c>
@@ -17238,7 +17263,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="679" spans="1:6" s="4" customFormat="1">
+    <row r="679" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="4" t="s">
         <v>1390</v>
       </c>
@@ -17252,7 +17277,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="680" spans="1:6" s="4" customFormat="1">
+    <row r="680" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="4" t="s">
         <v>1394</v>
       </c>
@@ -17269,7 +17294,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="681" spans="1:6" s="4" customFormat="1">
+    <row r="681" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="4" t="s">
         <v>1394</v>
       </c>
@@ -17283,7 +17308,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="682" spans="1:6" s="4" customFormat="1">
+    <row r="682" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="4" t="s">
         <v>1394</v>
       </c>
@@ -17297,7 +17322,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="683" spans="1:6" s="4" customFormat="1">
+    <row r="683" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="4" t="s">
         <v>1401</v>
       </c>
@@ -17311,7 +17336,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="684" spans="1:6" s="4" customFormat="1">
+    <row r="684" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="4" t="s">
         <v>1401</v>
       </c>
@@ -17328,7 +17353,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="685" spans="1:6" s="4" customFormat="1">
+    <row r="685" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="4" t="s">
         <v>1401</v>
       </c>
@@ -17348,7 +17373,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="686" spans="1:6" s="4" customFormat="1">
+    <row r="686" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="4" t="s">
         <v>1409</v>
       </c>
@@ -17362,7 +17387,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="687" spans="1:6" s="4" customFormat="1">
+    <row r="687" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="4" t="s">
         <v>1409</v>
       </c>
@@ -17382,7 +17407,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="688" spans="1:6" s="4" customFormat="1">
+    <row r="688" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="4" t="s">
         <v>1414</v>
       </c>
@@ -17396,7 +17421,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="689" spans="1:7" s="4" customFormat="1">
+    <row r="689" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="4" t="s">
         <v>1414</v>
       </c>
@@ -17413,7 +17438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="690" spans="1:7" s="4" customFormat="1">
+    <row r="690" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="4" t="s">
         <v>1414</v>
       </c>
@@ -17427,7 +17452,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="691" spans="1:7" s="4" customFormat="1">
+    <row r="691" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="4" t="s">
         <v>1414</v>
       </c>
@@ -17444,7 +17469,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="692" spans="1:7" s="4" customFormat="1">
+    <row r="692" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="4" t="s">
         <v>1414</v>
       </c>
@@ -17458,7 +17483,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="693" spans="1:7" s="4" customFormat="1">
+    <row r="693" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="4" t="s">
         <v>1414</v>
       </c>
@@ -17472,7 +17497,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="694" spans="1:7" s="4" customFormat="1">
+    <row r="694" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="4" t="s">
         <v>1426</v>
       </c>
@@ -17486,7 +17511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="695" spans="1:7" s="4" customFormat="1">
+    <row r="695" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="4" t="s">
         <v>1426</v>
       </c>
@@ -17500,7 +17525,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="696" spans="1:7" s="4" customFormat="1">
+    <row r="696" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="4" t="s">
         <v>1426</v>
       </c>
@@ -17517,7 +17542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="697" spans="1:7" s="4" customFormat="1">
+    <row r="697" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="4" t="s">
         <v>1426</v>
       </c>
@@ -17534,7 +17559,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="698" spans="1:7" s="4" customFormat="1">
+    <row r="698" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="4" t="s">
         <v>1431</v>
       </c>
@@ -17554,7 +17579,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="699" spans="1:7" s="4" customFormat="1">
+    <row r="699" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="4" t="s">
         <v>1431</v>
       </c>
@@ -17568,7 +17593,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="700" spans="1:7" s="4" customFormat="1">
+    <row r="700" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="4" t="s">
         <v>1431</v>
       </c>
@@ -17585,7 +17610,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="701" spans="1:7" s="4" customFormat="1">
+    <row r="701" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="4" t="s">
         <v>1440</v>
       </c>
@@ -17599,7 +17624,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="702" spans="1:7" s="4" customFormat="1">
+    <row r="702" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="4" t="s">
         <v>1440</v>
       </c>
@@ -17613,7 +17638,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="703" spans="1:7" s="4" customFormat="1">
+    <row r="703" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="4" t="s">
         <v>1444</v>
       </c>
@@ -17636,7 +17661,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="704" spans="1:7" s="4" customFormat="1">
+    <row r="704" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="4" t="s">
         <v>1444</v>
       </c>
@@ -17650,7 +17675,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="705" spans="1:11" s="4" customFormat="1">
+    <row r="705" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="4" t="s">
         <v>1444</v>
       </c>
@@ -17664,7 +17689,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="706" spans="1:11" s="4" customFormat="1">
+    <row r="706" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="4" t="s">
         <v>1444</v>
       </c>
@@ -17681,7 +17706,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="707" spans="1:11" s="4" customFormat="1">
+    <row r="707" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="4" t="s">
         <v>1450</v>
       </c>
@@ -17695,7 +17720,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="708" spans="1:11" s="4" customFormat="1">
+    <row r="708" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="4" t="s">
         <v>1450</v>
       </c>
@@ -17712,7 +17737,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="709" spans="1:11" s="4" customFormat="1">
+    <row r="709" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="4" t="s">
         <v>1454</v>
       </c>
@@ -17726,7 +17751,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="710" spans="1:11" s="4" customFormat="1">
+    <row r="710" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="4" t="s">
         <v>1457</v>
       </c>
@@ -17740,7 +17765,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="711" spans="1:11" s="4" customFormat="1">
+    <row r="711" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="4" t="s">
         <v>1457</v>
       </c>
@@ -17754,7 +17779,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="712" spans="1:11" s="4" customFormat="1">
+    <row r="712" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="4" t="s">
         <v>1457</v>
       </c>
@@ -17768,7 +17793,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="713" spans="1:11" s="4" customFormat="1">
+    <row r="713" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="4" t="s">
         <v>1462</v>
       </c>
@@ -17779,7 +17804,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="714" spans="1:11" s="4" customFormat="1">
+    <row r="714" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="4" t="s">
         <v>1462</v>
       </c>
@@ -17805,7 +17830,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="715" spans="1:11" s="4" customFormat="1">
+    <row r="715" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="4" t="s">
         <v>1468</v>
       </c>
@@ -17840,7 +17865,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="716" spans="1:11" s="4" customFormat="1">
+    <row r="716" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="4" t="s">
         <v>1468</v>
       </c>
@@ -17854,7 +17879,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="717" spans="1:11" s="4" customFormat="1">
+    <row r="717" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="4" t="s">
         <v>1473</v>
       </c>
@@ -17868,7 +17893,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="718" spans="1:11" s="4" customFormat="1">
+    <row r="718" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="4" t="s">
         <v>1475</v>
       </c>
@@ -17882,7 +17907,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="719" spans="1:11" s="4" customFormat="1">
+    <row r="719" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="4" t="s">
         <v>1475</v>
       </c>
@@ -17896,7 +17921,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="720" spans="1:11" s="4" customFormat="1">
+    <row r="720" spans="1:11" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="4" t="s">
         <v>1475</v>
       </c>
@@ -17910,7 +17935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="721" spans="1:7" s="4" customFormat="1">
+    <row r="721" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="4" t="s">
         <v>1475</v>
       </c>
@@ -17924,7 +17949,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="722" spans="1:7" s="4" customFormat="1">
+    <row r="722" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="4" t="s">
         <v>1475</v>
       </c>
@@ -17938,7 +17963,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="723" spans="1:7" s="4" customFormat="1">
+    <row r="723" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="4" t="s">
         <v>1484</v>
       </c>
@@ -17952,7 +17977,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="724" spans="1:7" s="4" customFormat="1">
+    <row r="724" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="4" t="s">
         <v>1484</v>
       </c>
@@ -17969,7 +17994,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="725" spans="1:7" s="4" customFormat="1">
+    <row r="725" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="4" t="s">
         <v>1489</v>
       </c>
@@ -17983,7 +18008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="726" spans="1:7" s="4" customFormat="1">
+    <row r="726" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="4" t="s">
         <v>1489</v>
       </c>
@@ -17997,7 +18022,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="727" spans="1:7" s="4" customFormat="1">
+    <row r="727" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="4" t="s">
         <v>1489</v>
       </c>
@@ -18014,7 +18039,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="728" spans="1:7" s="4" customFormat="1">
+    <row r="728" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="4" t="s">
         <v>1489</v>
       </c>
@@ -18028,7 +18053,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="729" spans="1:7" s="4" customFormat="1">
+    <row r="729" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="4" t="s">
         <v>1495</v>
       </c>
@@ -18045,7 +18070,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="730" spans="1:7" s="4" customFormat="1">
+    <row r="730" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="4" t="s">
         <v>1495</v>
       </c>
@@ -18068,7 +18093,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="731" spans="1:7" s="4" customFormat="1">
+    <row r="731" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="4" t="s">
         <v>1495</v>
       </c>
@@ -18085,7 +18110,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="732" spans="1:7" s="4" customFormat="1">
+    <row r="732" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="4" t="s">
         <v>1495</v>
       </c>
@@ -18096,7 +18121,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="733" spans="1:7" s="4" customFormat="1">
+    <row r="733" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="4" t="s">
         <v>1495</v>
       </c>
@@ -18110,7 +18135,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="734" spans="1:7" s="4" customFormat="1">
+    <row r="734" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="4" t="s">
         <v>1505</v>
       </c>
@@ -18124,7 +18149,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="735" spans="1:7" s="4" customFormat="1">
+    <row r="735" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="4" t="s">
         <v>1505</v>
       </c>
@@ -18141,7 +18166,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="736" spans="1:7" s="4" customFormat="1">
+    <row r="736" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="4" t="s">
         <v>1509</v>
       </c>
@@ -18155,7 +18180,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="737" spans="1:7" s="4" customFormat="1">
+    <row r="737" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="4" t="s">
         <v>1509</v>
       </c>
@@ -18166,7 +18191,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="738" spans="1:7" s="4" customFormat="1">
+    <row r="738" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="4" t="s">
         <v>1509</v>
       </c>
@@ -18189,7 +18214,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="739" spans="1:7" s="4" customFormat="1">
+    <row r="739" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="4" t="s">
         <v>1509</v>
       </c>
@@ -18203,7 +18228,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="740" spans="1:7" s="4" customFormat="1">
+    <row r="740" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="4" t="s">
         <v>1516</v>
       </c>
@@ -18217,7 +18242,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="741" spans="1:7" s="4" customFormat="1">
+    <row r="741" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="4" t="s">
         <v>1516</v>
       </c>
@@ -18231,7 +18256,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="742" spans="1:7" s="4" customFormat="1">
+    <row r="742" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="4" t="s">
         <v>1516</v>
       </c>
@@ -18245,7 +18270,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="743" spans="1:7" s="4" customFormat="1">
+    <row r="743" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="4" t="s">
         <v>1522</v>
       </c>
@@ -18259,7 +18284,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="744" spans="1:7" s="4" customFormat="1">
+    <row r="744" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="4" t="s">
         <v>1522</v>
       </c>
@@ -18273,7 +18298,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="745" spans="1:7" s="4" customFormat="1">
+    <row r="745" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="4" t="s">
         <v>1526</v>
       </c>
@@ -18287,7 +18312,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="746" spans="1:7" s="4" customFormat="1">
+    <row r="746" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="4" t="s">
         <v>1526</v>
       </c>
@@ -18301,7 +18326,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="747" spans="1:7" s="4" customFormat="1">
+    <row r="747" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="4" t="s">
         <v>1526</v>
       </c>
@@ -18315,7 +18340,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="748" spans="1:7" s="4" customFormat="1">
+    <row r="748" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="4" t="s">
         <v>1526</v>
       </c>
@@ -18329,7 +18354,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="749" spans="1:7" s="4" customFormat="1">
+    <row r="749" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="4" t="s">
         <v>1534</v>
       </c>
@@ -18343,7 +18368,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="750" spans="1:7" s="4" customFormat="1">
+    <row r="750" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="4" t="s">
         <v>1534</v>
       </c>
@@ -18357,7 +18382,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="751" spans="1:7" s="4" customFormat="1">
+    <row r="751" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="4" t="s">
         <v>1534</v>
       </c>
@@ -18371,7 +18396,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="752" spans="1:7" s="4" customFormat="1">
+    <row r="752" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="4" t="s">
         <v>1534</v>
       </c>
@@ -18391,7 +18416,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="753" spans="1:8" s="4" customFormat="1">
+    <row r="753" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="4" t="s">
         <v>1540</v>
       </c>
@@ -18411,7 +18436,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="754" spans="1:8" s="4" customFormat="1">
+    <row r="754" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="4" t="s">
         <v>1540</v>
       </c>
@@ -18425,7 +18450,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="755" spans="1:8" s="4" customFormat="1">
+    <row r="755" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="4" t="s">
         <v>1546</v>
       </c>
@@ -18442,7 +18467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="756" spans="1:8" s="4" customFormat="1">
+    <row r="756" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="4" t="s">
         <v>1546</v>
       </c>
@@ -18459,7 +18484,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="757" spans="1:8" s="4" customFormat="1">
+    <row r="757" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="4" t="s">
         <v>1546</v>
       </c>
@@ -18473,7 +18498,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="758" spans="1:8" s="4" customFormat="1">
+    <row r="758" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="4" t="s">
         <v>1546</v>
       </c>
@@ -18490,7 +18515,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="759" spans="1:8" s="4" customFormat="1">
+    <row r="759" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="4" t="s">
         <v>1554</v>
       </c>
@@ -18507,7 +18532,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="760" spans="1:8" s="4" customFormat="1">
+    <row r="760" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="4" t="s">
         <v>1554</v>
       </c>
@@ -18524,7 +18549,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="761" spans="1:8" s="4" customFormat="1">
+    <row r="761" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="4" t="s">
         <v>1554</v>
       </c>
@@ -18538,7 +18563,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="762" spans="1:8" s="4" customFormat="1">
+    <row r="762" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="4" t="s">
         <v>1561</v>
       </c>
@@ -18564,7 +18589,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="763" spans="1:8" s="4" customFormat="1">
+    <row r="763" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="4" t="s">
         <v>1565</v>
       </c>
@@ -18587,7 +18612,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="764" spans="1:8" s="4" customFormat="1">
+    <row r="764" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="4" t="s">
         <v>1571</v>
       </c>
@@ -18604,7 +18629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="765" spans="1:8" s="4" customFormat="1">
+    <row r="765" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="4" t="s">
         <v>1571</v>
       </c>
@@ -18618,7 +18643,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="766" spans="1:8" s="4" customFormat="1">
+    <row r="766" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="4" t="s">
         <v>1571</v>
       </c>
@@ -18635,7 +18660,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="767" spans="1:8" s="4" customFormat="1">
+    <row r="767" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="4" t="s">
         <v>1578</v>
       </c>
@@ -18652,7 +18677,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="768" spans="1:8" s="4" customFormat="1">
+    <row r="768" spans="1:8" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="4" t="s">
         <v>1580</v>
       </c>
@@ -18666,7 +18691,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="769" spans="1:6" s="4" customFormat="1">
+    <row r="769" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="4" t="s">
         <v>1580</v>
       </c>
@@ -18683,7 +18708,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="770" spans="1:6" s="4" customFormat="1">
+    <row r="770" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="4" t="s">
         <v>1580</v>
       </c>
@@ -18703,7 +18728,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="771" spans="1:6" s="4" customFormat="1">
+    <row r="771" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="4" t="s">
         <v>1580</v>
       </c>
@@ -18717,7 +18742,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="772" spans="1:6" s="4" customFormat="1">
+    <row r="772" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="4" t="s">
         <v>1586</v>
       </c>
@@ -18737,7 +18762,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="773" spans="1:6" s="4" customFormat="1">
+    <row r="773" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="4" t="s">
         <v>1589</v>
       </c>
@@ -18751,7 +18776,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="774" spans="1:6" s="4" customFormat="1">
+    <row r="774" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="4" t="s">
         <v>1592</v>
       </c>
@@ -18765,7 +18790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="775" spans="1:6" s="4" customFormat="1">
+    <row r="775" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="4" t="s">
         <v>1592</v>
       </c>
@@ -18779,7 +18804,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="776" spans="1:6" s="4" customFormat="1">
+    <row r="776" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="4" t="s">
         <v>1596</v>
       </c>
@@ -18796,7 +18821,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="777" spans="1:6" s="4" customFormat="1">
+    <row r="777" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="4" t="s">
         <v>1596</v>
       </c>
@@ -18810,7 +18835,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="778" spans="1:6" s="4" customFormat="1">
+    <row r="778" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="4" t="s">
         <v>1601</v>
       </c>
@@ -18824,7 +18849,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="779" spans="1:6" s="4" customFormat="1">
+    <row r="779" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="4" t="s">
         <v>1601</v>
       </c>
@@ -18841,7 +18866,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="780" spans="1:6" s="4" customFormat="1">
+    <row r="780" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="4" t="s">
         <v>1605</v>
       </c>
@@ -18855,7 +18880,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="781" spans="1:6" s="4" customFormat="1">
+    <row r="781" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="4" t="s">
         <v>1605</v>
       </c>
@@ -18869,7 +18894,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="782" spans="1:6" s="4" customFormat="1">
+    <row r="782" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="4" t="s">
         <v>1605</v>
       </c>
@@ -18886,7 +18911,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="783" spans="1:6" s="4" customFormat="1">
+    <row r="783" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="4" t="s">
         <v>1609</v>
       </c>
@@ -18900,7 +18925,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="784" spans="1:6" s="4" customFormat="1">
+    <row r="784" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="4" t="s">
         <v>1609</v>
       </c>
@@ -18914,7 +18939,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="785" spans="1:6" s="4" customFormat="1">
+    <row r="785" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="4" t="s">
         <v>1613</v>
       </c>
@@ -18928,7 +18953,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="786" spans="1:6" s="4" customFormat="1">
+    <row r="786" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="4" t="s">
         <v>1616</v>
       </c>
@@ -18948,7 +18973,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="787" spans="1:6" s="4" customFormat="1">
+    <row r="787" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="4" t="s">
         <v>1620</v>
       </c>
@@ -18965,7 +18990,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="788" spans="1:6" s="4" customFormat="1">
+    <row r="788" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="4" t="s">
         <v>1622</v>
       </c>
@@ -18979,7 +19004,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="789" spans="1:6" s="4" customFormat="1">
+    <row r="789" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="4" t="s">
         <v>1622</v>
       </c>
@@ -18996,7 +19021,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="790" spans="1:6" s="4" customFormat="1">
+    <row r="790" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="4" t="s">
         <v>1622</v>
       </c>
@@ -19010,7 +19035,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="791" spans="1:6" s="4" customFormat="1">
+    <row r="791" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="4" t="s">
         <v>1628</v>
       </c>
@@ -19024,7 +19049,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="792" spans="1:6" s="4" customFormat="1">
+    <row r="792" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="4" t="s">
         <v>1630</v>
       </c>
@@ -19041,7 +19066,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="793" spans="1:6" s="4" customFormat="1">
+    <row r="793" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="4" t="s">
         <v>1630</v>
       </c>
@@ -19055,7 +19080,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="794" spans="1:6" s="4" customFormat="1">
+    <row r="794" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="4" t="s">
         <v>1630</v>
       </c>
@@ -19069,7 +19094,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="795" spans="1:6" s="4" customFormat="1">
+    <row r="795" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="4" t="s">
         <v>1634</v>
       </c>
@@ -19086,7 +19111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="796" spans="1:6" s="4" customFormat="1">
+    <row r="796" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="4" t="s">
         <v>1637</v>
       </c>
@@ -19103,7 +19128,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="797" spans="1:6" s="4" customFormat="1">
+    <row r="797" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="4" t="s">
         <v>1637</v>
       </c>
@@ -19120,7 +19145,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="798" spans="1:6" s="4" customFormat="1">
+    <row r="798" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="4" t="s">
         <v>1641</v>
       </c>
@@ -19137,7 +19162,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="799" spans="1:6" s="4" customFormat="1">
+    <row r="799" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="4" t="s">
         <v>1641</v>
       </c>
@@ -19151,7 +19176,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="800" spans="1:6" s="4" customFormat="1">
+    <row r="800" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="4" t="s">
         <v>1645</v>
       </c>
@@ -19165,7 +19190,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="801" spans="1:7" s="4" customFormat="1">
+    <row r="801" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="4" t="s">
         <v>1645</v>
       </c>
@@ -19179,7 +19204,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="802" spans="1:7" s="4" customFormat="1">
+    <row r="802" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="4" t="s">
         <v>1648</v>
       </c>
@@ -19196,7 +19221,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="803" spans="1:7" s="4" customFormat="1">
+    <row r="803" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="4" t="s">
         <v>1652</v>
       </c>
@@ -19210,7 +19235,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="804" spans="1:7" s="4" customFormat="1">
+    <row r="804" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="4" t="s">
         <v>1652</v>
       </c>
@@ -19224,7 +19249,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="805" spans="1:7" s="4" customFormat="1">
+    <row r="805" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="4" t="s">
         <v>1655</v>
       </c>
@@ -19241,7 +19266,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="806" spans="1:7" s="4" customFormat="1">
+    <row r="806" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="4" t="s">
         <v>1655</v>
       </c>
@@ -19255,7 +19280,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="807" spans="1:7" s="4" customFormat="1">
+    <row r="807" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="4" t="s">
         <v>1655</v>
       </c>
@@ -19269,7 +19294,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="808" spans="1:7" s="4" customFormat="1">
+    <row r="808" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="4" t="s">
         <v>1662</v>
       </c>
@@ -19292,7 +19317,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="809" spans="1:7" s="4" customFormat="1">
+    <row r="809" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="4" t="s">
         <v>1662</v>
       </c>
@@ -19309,7 +19334,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="810" spans="1:7" s="4" customFormat="1">
+    <row r="810" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="4" t="s">
         <v>1666</v>
       </c>
@@ -19323,7 +19348,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="811" spans="1:7" s="4" customFormat="1">
+    <row r="811" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="4" t="s">
         <v>1666</v>
       </c>
@@ -19340,7 +19365,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="812" spans="1:7" s="4" customFormat="1">
+    <row r="812" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="4" t="s">
         <v>1666</v>
       </c>
@@ -19357,7 +19382,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="813" spans="1:7" s="4" customFormat="1">
+    <row r="813" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="4" t="s">
         <v>1666</v>
       </c>
@@ -19371,7 +19396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="814" spans="1:7" s="4" customFormat="1">
+    <row r="814" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="4" t="s">
         <v>1666</v>
       </c>
@@ -19385,7 +19410,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="815" spans="1:7" s="4" customFormat="1">
+    <row r="815" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="4" t="s">
         <v>1674</v>
       </c>
@@ -19402,7 +19427,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="816" spans="1:7" s="4" customFormat="1">
+    <row r="816" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="4" t="s">
         <v>1674</v>
       </c>
@@ -19416,7 +19441,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="817" spans="1:6" s="4" customFormat="1">
+    <row r="817" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="4" t="s">
         <v>1674</v>
       </c>
@@ -19430,7 +19455,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="818" spans="1:6" s="4" customFormat="1">
+    <row r="818" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="4" t="s">
         <v>1674</v>
       </c>
@@ -19444,7 +19469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="819" spans="1:6" s="4" customFormat="1">
+    <row r="819" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="4" t="s">
         <v>1674</v>
       </c>
@@ -19458,7 +19483,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="820" spans="1:6" s="4" customFormat="1">
+    <row r="820" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="4" t="s">
         <v>1674</v>
       </c>
@@ -19475,7 +19500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="821" spans="1:6" s="4" customFormat="1">
+    <row r="821" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="4" t="s">
         <v>1682</v>
       </c>
@@ -19489,7 +19514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="822" spans="1:6" s="4" customFormat="1">
+    <row r="822" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="4" t="s">
         <v>1682</v>
       </c>
@@ -19503,7 +19528,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="823" spans="1:6" s="4" customFormat="1">
+    <row r="823" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="4" t="s">
         <v>1682</v>
       </c>
@@ -19517,7 +19542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="824" spans="1:6" s="4" customFormat="1">
+    <row r="824" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="4" t="s">
         <v>1686</v>
       </c>
@@ -19531,7 +19556,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="825" spans="1:6" s="4" customFormat="1">
+    <row r="825" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="4" t="s">
         <v>1686</v>
       </c>
@@ -19548,7 +19573,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="826" spans="1:6" s="4" customFormat="1">
+    <row r="826" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="4" t="s">
         <v>1690</v>
       </c>
@@ -19562,7 +19587,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="827" spans="1:6" s="4" customFormat="1">
+    <row r="827" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="4" t="s">
         <v>1690</v>
       </c>
@@ -19582,7 +19607,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="828" spans="1:6" s="4" customFormat="1">
+    <row r="828" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="4" t="s">
         <v>1690</v>
       </c>
@@ -19596,7 +19621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="829" spans="1:6" s="4" customFormat="1">
+    <row r="829" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="4" t="s">
         <v>1695</v>
       </c>
@@ -19613,7 +19638,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="830" spans="1:6" s="4" customFormat="1">
+    <row r="830" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="4" t="s">
         <v>1698</v>
       </c>
@@ -19627,7 +19652,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="831" spans="1:6" s="4" customFormat="1">
+    <row r="831" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="4" t="s">
         <v>1698</v>
       </c>
@@ -19641,7 +19666,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="832" spans="1:6" s="4" customFormat="1">
+    <row r="832" spans="1:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="4" t="s">
         <v>1702</v>
       </c>
@@ -19661,7 +19686,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="833" spans="1:7" s="4" customFormat="1">
+    <row r="833" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="4" t="s">
         <v>1704</v>
       </c>
@@ -19675,7 +19700,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="834" spans="1:7" s="4" customFormat="1">
+    <row r="834" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="4" t="s">
         <v>1706</v>
       </c>
@@ -19689,7 +19714,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="835" spans="1:7" s="4" customFormat="1">
+    <row r="835" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="4" t="s">
         <v>1706</v>
       </c>
@@ -19709,7 +19734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="836" spans="1:7" s="4" customFormat="1">
+    <row r="836" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="4" t="s">
         <v>1709</v>
       </c>
@@ -19726,7 +19751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="837" spans="1:7" s="4" customFormat="1">
+    <row r="837" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="4" t="s">
         <v>1709</v>
       </c>
@@ -19740,7 +19765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="838" spans="1:7" s="4" customFormat="1">
+    <row r="838" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="4" t="s">
         <v>1709</v>
       </c>
@@ -19754,7 +19779,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="839" spans="1:7" s="4" customFormat="1">
+    <row r="839" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="4" t="s">
         <v>1709</v>
       </c>
@@ -19768,7 +19793,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="840" spans="1:7" s="4" customFormat="1">
+    <row r="840" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="4" t="s">
         <v>1714</v>
       </c>
@@ -19788,7 +19813,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="841" spans="1:7" s="4" customFormat="1">
+    <row r="841" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="4" t="s">
         <v>1714</v>
       </c>
@@ -19808,7 +19833,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="842" spans="1:7" s="4" customFormat="1">
+    <row r="842" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="4" t="s">
         <v>1714</v>
       </c>
@@ -19822,7 +19847,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="843" spans="1:7" s="4" customFormat="1">
+    <row r="843" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="4" t="s">
         <v>1714</v>
       </c>
@@ -19836,7 +19861,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="844" spans="1:7" s="4" customFormat="1">
+    <row r="844" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="4" t="s">
         <v>1722</v>
       </c>
@@ -19850,7 +19875,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="845" spans="1:7" s="4" customFormat="1">
+    <row r="845" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="4" t="s">
         <v>1722</v>
       </c>
@@ -19864,7 +19889,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="846" spans="1:7" s="4" customFormat="1">
+    <row r="846" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="4" t="s">
         <v>1726</v>
       </c>
@@ -19878,7 +19903,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="847" spans="1:7" s="4" customFormat="1">
+    <row r="847" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="4" t="s">
         <v>1728</v>
       </c>
@@ -19901,7 +19926,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="848" spans="1:7" s="4" customFormat="1">
+    <row r="848" spans="1:7" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="4" t="s">
         <v>1728</v>
       </c>
@@ -19924,7 +19949,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="849" spans="1:5" s="4" customFormat="1">
+    <row r="849" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="4" t="s">
         <v>1735</v>
       </c>
@@ -19938,7 +19963,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="850" spans="1:5" s="4" customFormat="1">
+    <row r="850" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="4" t="s">
         <v>1735</v>
       </c>
@@ -19952,7 +19977,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="851" spans="1:5" s="4" customFormat="1">
+    <row r="851" spans="1:5" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="4" t="s">
         <v>1735</v>
       </c>
@@ -19969,7 +19994,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>1743</v>
       </c>
@@ -19983,7 +20008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>1743</v>
       </c>
@@ -19997,7 +20022,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="854" spans="1:5">
+    <row r="854" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>1748</v>
       </c>
@@ -20011,7 +20036,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="855" spans="1:5">
+    <row r="855" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>1748</v>
       </c>
@@ -20028,7 +20053,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="856" spans="1:5">
+    <row r="856" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>1748</v>
       </c>
@@ -20042,7 +20067,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="857" spans="1:5">
+    <row r="857" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>1756</v>
       </c>
@@ -20056,7 +20081,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="858" spans="1:5">
+    <row r="858" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>1759</v>
       </c>
@@ -20070,7 +20095,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="859" spans="1:5">
+    <row r="859" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>1762</v>
       </c>
@@ -20084,7 +20109,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="860" spans="1:5" ht="404">
+    <row r="860" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>1766</v>
       </c>
@@ -20098,7 +20123,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="861" spans="1:5" ht="153">
+    <row r="861" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>1769</v>
       </c>
@@ -20112,7 +20137,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="862" spans="1:5" ht="340">
+    <row r="862" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B862" s="1" t="s">
         <v>7</v>
       </c>
@@ -20123,7 +20148,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="863" spans="1:5">
+    <row r="863" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>1773</v>
       </c>
@@ -20137,7 +20162,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="864" spans="1:5">
+    <row r="864" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>1776</v>
       </c>
@@ -20151,7 +20176,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="865" spans="1:5">
+    <row r="865" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>1776</v>
       </c>
@@ -20165,7 +20190,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="866" spans="1:5" ht="187">
+    <row r="866" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>1781</v>
       </c>
@@ -20179,7 +20204,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="867" spans="1:5">
+    <row r="867" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>1784</v>
       </c>
@@ -20193,7 +20218,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>1788</v>
       </c>
@@ -20207,7 +20232,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>1790</v>
       </c>
@@ -20221,7 +20246,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="870" spans="1:5">
+    <row r="870" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>1793</v>
       </c>
@@ -20235,7 +20260,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="871" spans="1:5" ht="388">
+    <row r="871" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>1796</v>
       </c>
@@ -20252,7 +20277,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="872" spans="1:5">
+    <row r="872" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>1799</v>
       </c>
@@ -20266,7 +20291,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="873" spans="1:5">
+    <row r="873" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>1799</v>
       </c>
@@ -20283,7 +20308,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="874" spans="1:5" ht="187">
+    <row r="874" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>1799</v>
       </c>
@@ -20297,7 +20322,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="875" spans="1:5">
+    <row r="875" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>1799</v>
       </c>
@@ -20311,7 +20336,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="876" spans="1:5">
+    <row r="876" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>1806</v>
       </c>
@@ -20325,7 +20350,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="877" spans="1:5" ht="187">
+    <row r="877" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>1806</v>
       </c>
@@ -20339,7 +20364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="878" spans="1:5">
+    <row r="878" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>1814</v>
       </c>
@@ -20353,7 +20378,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="879" spans="1:5">
+    <row r="879" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>1814</v>
       </c>
@@ -20370,7 +20395,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="880" spans="1:5">
+    <row r="880" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>1814</v>
       </c>
@@ -20384,7 +20409,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="881" spans="1:5" ht="238">
+    <row r="881" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>1810</v>
       </c>
@@ -20398,7 +20423,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="882" spans="1:5">
+    <row r="882" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>1810</v>
       </c>
@@ -20412,7 +20437,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="883" spans="1:5">
+    <row r="883" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>1820</v>
       </c>
@@ -20426,7 +20451,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="884" spans="1:5">
+    <row r="884" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>1831</v>
       </c>
@@ -20443,7 +20468,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="885" spans="1:5">
+    <row r="885" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>1827</v>
       </c>
@@ -20457,7 +20482,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="886" spans="1:5">
+    <row r="886" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>1827</v>
       </c>
@@ -20471,7 +20496,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="887" spans="1:5">
+    <row r="887" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>1823</v>
       </c>
@@ -20485,7 +20510,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="888" spans="1:5">
+    <row r="888" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>1823</v>
       </c>
@@ -20499,7 +20524,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="889" spans="1:5" ht="119">
+    <row r="889" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>1834</v>
       </c>
@@ -20516,7 +20541,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="890" spans="1:5" ht="221">
+    <row r="890" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>1836</v>
       </c>
@@ -20530,7 +20555,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="891" spans="1:5" ht="221">
+    <row r="891" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>1836</v>
       </c>
@@ -20544,7 +20569,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="892" spans="1:5" ht="153">
+    <row r="892" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>1836</v>
       </c>
@@ -20558,7 +20583,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="893" spans="1:5" ht="102">
+    <row r="893" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>1836</v>
       </c>
@@ -20572,7 +20597,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="894" spans="1:5" ht="238">
+    <row r="894" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>1836</v>
       </c>
@@ -20586,7 +20611,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="895" spans="1:5" ht="68">
+    <row r="895" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>1836</v>
       </c>
@@ -20600,7 +20625,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="896" spans="1:5" ht="68">
+    <row r="896" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>1844</v>
       </c>
@@ -20614,7 +20639,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="897" spans="1:8" ht="136">
+    <row r="897" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>1844</v>
       </c>
@@ -20628,7 +20653,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="898" spans="1:8" ht="136">
+    <row r="898" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>1847</v>
       </c>
@@ -20642,7 +20667,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="899" spans="1:8" ht="204">
+    <row r="899" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>1850</v>
       </c>
@@ -20659,7 +20684,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="900" spans="1:8">
+    <row r="900" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>1850</v>
       </c>
@@ -20673,7 +20698,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="901" spans="1:8" ht="204">
+    <row r="901" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>1850</v>
       </c>
@@ -20687,7 +20712,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>1858</v>
       </c>
@@ -20701,7 +20726,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="903" spans="1:8" ht="204">
+    <row r="903" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>1858</v>
       </c>
@@ -20715,7 +20740,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>1858</v>
       </c>
@@ -20729,7 +20754,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="905" spans="1:8" ht="238">
+    <row r="905" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>1866</v>
       </c>
@@ -20746,7 +20771,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>1870</v>
       </c>
@@ -20760,7 +20785,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>1868</v>
       </c>
@@ -20774,7 +20799,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>1871</v>
       </c>
@@ -20788,7 +20813,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="909" spans="1:8" ht="409.6">
+    <row r="909" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>1875</v>
       </c>
@@ -20805,7 +20830,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="910" spans="1:8" ht="409.6">
+    <row r="910" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>1875</v>
       </c>
@@ -20819,7 +20844,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>1877</v>
       </c>
@@ -20833,7 +20858,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="912" spans="1:8" ht="409.6">
+    <row r="912" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>1881</v>
       </c>
@@ -20859,7 +20884,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="913" spans="1:6">
+    <row r="913" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>1884</v>
       </c>
@@ -20873,7 +20898,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="914" spans="1:6">
+    <row r="914" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>1887</v>
       </c>
@@ -20890,7 +20915,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="915" spans="1:6">
+    <row r="915" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>1887</v>
       </c>
@@ -20904,7 +20929,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="916" spans="1:6">
+    <row r="916" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>1887</v>
       </c>
@@ -20918,7 +20943,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="917" spans="1:6" ht="356">
+    <row r="917" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>1895</v>
       </c>
@@ -20935,7 +20960,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="918" spans="1:6" ht="204">
+    <row r="918" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>1898</v>
       </c>
@@ -20949,7 +20974,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="323">
+    <row r="919" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>1901</v>
       </c>
@@ -20963,7 +20988,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="272">
+    <row r="920" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>1905</v>
       </c>
@@ -20980,7 +21005,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="921" spans="1:6" ht="187">
+    <row r="921" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>1907</v>
       </c>
@@ -20994,7 +21019,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="922" spans="1:6" ht="119">
+    <row r="922" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>1909</v>
       </c>
@@ -21008,7 +21033,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="923" spans="1:6">
+    <row r="923" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>1912</v>
       </c>
@@ -21022,7 +21047,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="924" spans="1:6" ht="238">
+    <row r="924" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>1915</v>
       </c>
@@ -21036,7 +21061,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="925" spans="1:6">
+    <row r="925" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>1918</v>
       </c>
@@ -21050,7 +21075,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="926" spans="1:6">
+    <row r="926" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>1920</v>
       </c>
@@ -21064,7 +21089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="404">
+    <row r="927" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>1922</v>
       </c>
@@ -21081,7 +21106,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="372">
+    <row r="928" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>1922</v>
       </c>
@@ -21101,7 +21126,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="929" spans="1:6">
+    <row r="929" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>1929</v>
       </c>
@@ -21115,7 +21140,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="930" spans="1:6" ht="221">
+    <row r="930" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>1927</v>
       </c>
@@ -21129,7 +21154,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="931" spans="1:6">
+    <row r="931" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>1927</v>
       </c>
@@ -21143,7 +21168,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="932" spans="1:6">
+    <row r="932" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>1933</v>
       </c>
@@ -21157,7 +21182,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="933" spans="1:6" ht="272">
+    <row r="933" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>1933</v>
       </c>
@@ -21171,7 +21196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="934" spans="1:6">
+    <row r="934" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>1933</v>
       </c>
@@ -21185,7 +21210,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="935" spans="1:6" ht="204">
+    <row r="935" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>1938</v>
       </c>
@@ -21202,7 +21227,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="936" spans="1:6" ht="136">
+    <row r="936" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>1936</v>
       </c>
@@ -21216,7 +21241,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="937" spans="1:6">
+    <row r="937" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>1942</v>
       </c>
@@ -21230,7 +21255,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="938" spans="1:6">
+    <row r="938" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>1942</v>
       </c>
@@ -21247,7 +21272,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="939" spans="1:6">
+    <row r="939" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>1946</v>
       </c>
@@ -21261,7 +21286,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="940" spans="1:6" ht="170">
+    <row r="940" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>1949</v>
       </c>
@@ -21275,7 +21300,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="941" spans="1:6" ht="68">
+    <row r="941" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>1949</v>
       </c>
@@ -21289,7 +21314,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="942" spans="1:6" ht="306">
+    <row r="942" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>1949</v>
       </c>
@@ -21309,7 +21334,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="943" spans="1:6" ht="187">
+    <row r="943" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>1949</v>
       </c>
@@ -21323,7 +21348,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="944" spans="1:6" ht="85">
+    <row r="944" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>1949</v>
       </c>
@@ -21337,7 +21362,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="945" spans="1:5" ht="68">
+    <row r="945" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>1961</v>
       </c>
@@ -21351,7 +21376,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="946" spans="1:5" ht="238">
+    <row r="946" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>1964</v>
       </c>
@@ -21365,7 +21390,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="947" spans="1:5" ht="204">
+    <row r="947" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>1967</v>
       </c>
@@ -21379,7 +21404,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="948" spans="1:5" ht="289">
+    <row r="948" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>1969</v>
       </c>
@@ -21393,7 +21418,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="949" spans="1:5" ht="187">
+    <row r="949" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>1976</v>
       </c>
@@ -21407,7 +21432,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="950" spans="1:5" ht="238">
+    <row r="950" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>1971</v>
       </c>
@@ -21424,7 +21449,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="951" spans="1:5">
+    <row r="951" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>1971</v>
       </c>
@@ -21438,7 +21463,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="952" spans="1:5">
+    <row r="952" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>1971</v>
       </c>
@@ -21452,7 +21477,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="953" spans="1:5" ht="85">
+    <row r="953" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>1979</v>
       </c>
@@ -21469,7 +21494,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="954" spans="1:5">
+    <row r="954" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>1982</v>
       </c>
@@ -21483,7 +21508,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="955" spans="1:5" ht="136">
+    <row r="955" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>1985</v>
       </c>
@@ -21497,7 +21522,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="956" spans="1:5" ht="136">
+    <row r="956" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>1985</v>
       </c>
@@ -21511,7 +21536,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="957" spans="1:5" ht="238">
+    <row r="957" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>1989</v>
       </c>
@@ -21525,7 +21550,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="958" spans="1:5" ht="187">
+    <row r="958" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>1992</v>
       </c>
@@ -21539,7 +21564,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="959" spans="1:5" ht="51">
+    <row r="959" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>1994</v>
       </c>
@@ -21553,7 +21578,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="960" spans="1:5" ht="34">
+    <row r="960" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>1994</v>
       </c>
@@ -21567,7 +21592,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="51">
+    <row r="961" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>1994</v>
       </c>
@@ -21581,7 +21606,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="204">
+    <row r="962" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>1999</v>
       </c>
@@ -21595,7 +21620,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="255">
+    <row r="963" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>2001</v>
       </c>
@@ -21609,7 +21634,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="964" spans="1:7" ht="255">
+    <row r="964" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>2004</v>
       </c>
@@ -21623,7 +21648,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="965" spans="1:7" ht="306">
+    <row r="965" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>2009</v>
       </c>
@@ -21646,7 +21671,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="966" spans="1:7">
+    <row r="966" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>2011</v>
       </c>
@@ -21660,7 +21685,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="967" spans="1:7">
+    <row r="967" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>2011</v>
       </c>
@@ -21677,7 +21702,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="968" spans="1:7">
+    <row r="968" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>2011</v>
       </c>
@@ -21691,7 +21716,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="969" spans="1:7">
+    <row r="969" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>2032</v>
       </c>
@@ -21705,7 +21730,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="970" spans="1:7">
+    <row r="970" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>2030</v>
       </c>
@@ -21719,7 +21744,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="971" spans="1:7">
+    <row r="971" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>2026</v>
       </c>
@@ -21736,7 +21761,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="972" spans="1:7">
+    <row r="972" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>2026</v>
       </c>
@@ -21753,7 +21778,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="973" spans="1:7">
+    <row r="973" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>2023</v>
       </c>
@@ -21767,7 +21792,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="974" spans="1:7" ht="238">
+    <row r="974" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>2018</v>
       </c>
@@ -21784,7 +21809,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="68">
+    <row r="975" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>2018</v>
       </c>
@@ -21798,7 +21823,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="976" spans="1:7" ht="404">
+    <row r="976" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>2034</v>
       </c>
@@ -21812,7 +21837,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="136">
+    <row r="977" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>2036</v>
       </c>
@@ -21826,7 +21851,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="978" spans="1:7" ht="187">
+    <row r="978" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>2038</v>
       </c>
@@ -21840,7 +21865,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="409.6">
+    <row r="979" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>2041</v>
       </c>
@@ -21854,7 +21879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="204">
+    <row r="980" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>2041</v>
       </c>
@@ -21868,7 +21893,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="323">
+    <row r="981" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>2048</v>
       </c>
@@ -21885,7 +21910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="982" spans="1:7">
+    <row r="982" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>2045</v>
       </c>
@@ -21899,7 +21924,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="153">
+    <row r="983" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>2049</v>
       </c>
@@ -21916,7 +21941,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="153">
+    <row r="984" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>2052</v>
       </c>
@@ -21930,7 +21955,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="221">
+    <row r="985" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>2052</v>
       </c>
@@ -21953,7 +21978,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="153">
+    <row r="986" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>2058</v>
       </c>
@@ -21967,7 +21992,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="102">
+    <row r="987" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>2058</v>
       </c>
@@ -21981,7 +22006,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="102">
+    <row r="988" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>2058</v>
       </c>
@@ -21995,7 +22020,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="136">
+    <row r="989" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>2064</v>
       </c>
@@ -22012,7 +22037,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="990" spans="1:7" ht="68">
+    <row r="990" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>2064</v>
       </c>
@@ -22026,7 +22051,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="170">
+    <row r="991" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>2064</v>
       </c>
@@ -22040,7 +22065,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="204">
+    <row r="992" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>2071</v>
       </c>
@@ -22054,7 +22079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="993" spans="1:5" ht="204">
+    <row r="993" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>2073</v>
       </c>
@@ -22071,7 +22096,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="994" spans="1:5" ht="85">
+    <row r="994" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>2076</v>
       </c>
@@ -22088,7 +22113,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="995" spans="1:5" ht="51">
+    <row r="995" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>2076</v>
       </c>
@@ -22102,7 +22127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="996" spans="1:5" ht="34">
+    <row r="996" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>2076</v>
       </c>
@@ -22116,7 +22141,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="997" spans="1:5" ht="102">
+    <row r="997" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>2076</v>
       </c>
@@ -22130,7 +22155,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="998" spans="1:5" ht="51">
+    <row r="998" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>2076</v>
       </c>
@@ -22144,7 +22169,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="999" spans="1:5" ht="409.6">
+    <row r="999" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>2085</v>
       </c>
@@ -22161,7 +22186,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="1000" spans="1:5" ht="17">
+    <row r="1000" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>2085</v>
       </c>
@@ -22175,7 +22200,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="1001" spans="1:5" ht="51">
+    <row r="1001" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>2089</v>
       </c>
@@ -22189,7 +22214,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="1002" spans="1:5" ht="119">
+    <row r="1002" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>2089</v>
       </c>
@@ -22203,7 +22228,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="1003" spans="1:5" ht="85">
+    <row r="1003" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>2089</v>
       </c>
@@ -22217,7 +22242,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="1004" spans="1:5" ht="68">
+    <row r="1004" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>2096</v>
       </c>
@@ -22231,7 +22256,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="1005" spans="1:5" ht="170">
+    <row r="1005" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>2098</v>
       </c>
@@ -22245,7 +22270,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="1006" spans="1:5" ht="68">
+    <row r="1006" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>2098</v>
       </c>
@@ -22259,7 +22284,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="1007" spans="1:5" ht="187">
+    <row r="1007" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>2098</v>
       </c>
@@ -22273,7 +22298,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="1008" spans="1:5" ht="255">
+    <row r="1008" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>2103</v>
       </c>
@@ -22290,7 +22315,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" ht="388">
+    <row r="1009" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>2106</v>
       </c>
@@ -22310,7 +22335,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" ht="85">
+    <row r="1010" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>2110</v>
       </c>
@@ -22324,7 +22349,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" ht="102">
+    <row r="1011" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>2113</v>
       </c>
@@ -22338,7 +22363,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" ht="119">
+    <row r="1012" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>2113</v>
       </c>
@@ -22355,7 +22380,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" ht="289">
+    <row r="1013" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>2118</v>
       </c>
@@ -22369,7 +22394,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" ht="238">
+    <row r="1014" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>2121</v>
       </c>
@@ -22383,7 +22408,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="1015" spans="1:6">
+    <row r="1015" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>2124</v>
       </c>
@@ -22397,7 +22422,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" ht="255">
+    <row r="1016" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>2127</v>
       </c>

--- a/data/data_origin/TripAdvisor_split_sample/TripAdvisor_hotel_negative.xlsx
+++ b/data/data_origin/TripAdvisor_split_sample/TripAdvisor_hotel_negative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vivianli/PhD/TripAdvisor-hotel-aspect-level-sentiment-analysis/data/data_origin/TripAdvisor_split_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C005815B-AC31-844E-954F-083A29502676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22126303-F8D8-6E44-9326-95EA489382E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="640" windowWidth="24540" windowHeight="14140" xr2:uid="{00646F19-21E4-2A49-9BD1-D5CB611F8CF6}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="24540" windowHeight="14140" xr2:uid="{00646F19-21E4-2A49-9BD1-D5CB611F8CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7035,8 +7035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAC3DDD-0CAB-6544-B601-5ABEA1C35764}">
   <dimension ref="A1:K1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1013" workbookViewId="0">
-      <selection activeCell="A1016" sqref="A1016:XFD1016"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K159" sqref="K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
